--- a/priceList.xlsx
+++ b/priceList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangwonyoo/VSCODE_Project/Python_Study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangwonyoo/VSCODE_Project/pacel_program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F8AE8F-2577-564E-A363-96EE59895156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F7879C-76AE-D54C-83CF-0278B03BF48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6180C4A7-03DB-4600-AA87-CF1EA8B59F2A}"/>
+    <workbookView xWindow="-36300" yWindow="2560" windowWidth="30240" windowHeight="18880" xr2:uid="{6180C4A7-03DB-4600-AA87-CF1EA8B59F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
   <si>
     <t>위즈잇</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,11 +797,16 @@
     <t>훈랩</t>
   </si>
   <si>
+    <t xml:space="preserve"> 업체명</t>
+  </si>
+  <si>
     <t>단위 g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>부피 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기본값 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +817,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,30 +847,15 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="HY견고딕"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,8 +892,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE75"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -939,11 +935,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,10 +1018,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,40 +1030,20 @@
     <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1379,351 +1364,867 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70689A17-AB20-8742-953A-2A6613BED435}">
   <dimension ref="A1:AG111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="30">
+      <c r="B1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="33">
         <v>1000</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="33">
         <v>2000</v>
       </c>
-      <c r="E1" s="31">
+      <c r="E1" s="29">
         <v>5000</v>
       </c>
-      <c r="F1" s="32">
+      <c r="F1" s="30">
         <v>10000</v>
       </c>
-      <c r="G1" s="33">
+      <c r="G1" s="31">
         <v>20000</v>
       </c>
-      <c r="H1" s="33">
+      <c r="H1" s="31">
         <v>30000</v>
       </c>
-      <c r="I1" s="31">
+      <c r="I1" s="29">
         <v>2000</v>
       </c>
-      <c r="J1" s="31">
+      <c r="J1" s="29">
         <v>5000</v>
       </c>
-      <c r="K1" s="32">
+      <c r="K1" s="30">
         <v>10000</v>
       </c>
-      <c r="L1" s="33">
+      <c r="L1" s="31">
         <v>20000</v>
       </c>
-      <c r="M1" s="33">
+      <c r="M1" s="31">
         <v>30000</v>
       </c>
-      <c r="N1" s="33">
+      <c r="N1" s="30">
         <v>2000</v>
       </c>
-      <c r="O1" s="34">
+      <c r="O1" s="32">
         <v>5000</v>
       </c>
-      <c r="P1" s="35">
+      <c r="P1" s="34">
         <v>10000</v>
       </c>
-      <c r="Q1" s="33">
+      <c r="Q1" s="31">
         <v>20000</v>
       </c>
-      <c r="R1" s="36">
+      <c r="R1" s="31">
         <v>30000</v>
       </c>
-      <c r="S1" s="33">
+      <c r="S1" s="31">
         <v>2000</v>
       </c>
-      <c r="T1" s="33">
+      <c r="T1" s="31">
         <v>5000</v>
       </c>
-      <c r="U1" s="36">
+      <c r="U1" s="31">
         <v>10000</v>
       </c>
-      <c r="V1" s="33">
+      <c r="V1" s="31">
         <v>20000</v>
       </c>
-      <c r="W1" s="36">
+      <c r="W1" s="31">
         <v>30000</v>
       </c>
-      <c r="X1" s="33">
+      <c r="X1" s="31">
         <v>2000</v>
       </c>
-      <c r="Y1" s="33">
+      <c r="Y1" s="31">
         <v>5000</v>
       </c>
-      <c r="Z1" s="36">
+      <c r="Z1" s="31">
         <v>10000</v>
       </c>
-      <c r="AA1" s="33">
+      <c r="AA1" s="31">
         <v>20000</v>
       </c>
-      <c r="AB1" s="36">
+      <c r="AB1" s="31">
         <v>30000</v>
       </c>
-      <c r="AC1" s="33">
+      <c r="AC1" s="31">
         <v>2000</v>
       </c>
-      <c r="AD1" s="33">
+      <c r="AD1" s="31">
         <v>5000</v>
       </c>
-      <c r="AE1" s="33">
+      <c r="AE1" s="31">
         <v>10000</v>
       </c>
-      <c r="AF1" s="33">
+      <c r="AF1" s="31">
         <v>20000</v>
       </c>
-      <c r="AG1" s="33">
+      <c r="AG1" s="31">
         <v>30000</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="37">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="33">
         <v>50</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="33">
         <v>60</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="29">
         <v>60</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="30">
         <v>60</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="31">
         <v>60</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="31">
         <v>60</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="29">
         <v>80</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="29">
         <v>80</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="30">
         <v>80</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="31">
         <v>80</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="31">
         <v>80</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="30">
         <v>120</v>
       </c>
-      <c r="O2" s="44">
+      <c r="O2" s="32">
         <v>120</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="34">
         <v>120</v>
       </c>
-      <c r="Q2" s="43">
+      <c r="Q2" s="31">
         <v>120</v>
       </c>
-      <c r="R2" s="43">
+      <c r="R2" s="31">
         <v>120</v>
       </c>
-      <c r="S2" s="43">
+      <c r="S2" s="31">
         <v>140</v>
       </c>
-      <c r="T2" s="43">
+      <c r="T2" s="31">
         <v>140</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="31">
         <v>140</v>
       </c>
-      <c r="V2" s="43">
+      <c r="V2" s="31">
         <v>140</v>
       </c>
-      <c r="W2" s="43">
+      <c r="W2" s="31">
         <v>140</v>
       </c>
-      <c r="X2" s="43">
+      <c r="X2" s="31">
         <v>160</v>
       </c>
-      <c r="Y2" s="43">
+      <c r="Y2" s="31">
         <v>160</v>
       </c>
-      <c r="Z2" s="43">
+      <c r="Z2" s="31">
         <v>160</v>
       </c>
-      <c r="AA2" s="43">
+      <c r="AA2" s="31">
         <v>160</v>
       </c>
-      <c r="AB2" s="43">
+      <c r="AB2" s="31">
         <v>160</v>
       </c>
-      <c r="AC2" s="43">
+      <c r="AC2" s="31">
         <v>200</v>
       </c>
-      <c r="AD2" s="43">
+      <c r="AD2" s="31">
         <v>200</v>
       </c>
-      <c r="AE2" s="43">
+      <c r="AE2" s="31">
         <v>200</v>
       </c>
-      <c r="AF2" s="43">
+      <c r="AF2" s="31">
         <v>200</v>
       </c>
-      <c r="AG2" s="43">
+      <c r="AG2" s="31">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" ht="18">
+      <c r="A3" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="35"/>
       <c r="C3">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D3">
-        <v>2500</v>
+        <v>5100</v>
       </c>
       <c r="E3">
-        <v>3000</v>
+        <v>5200</v>
       </c>
       <c r="F3">
-        <v>3700</v>
+        <v>5300</v>
       </c>
       <c r="G3">
-        <v>13000</v>
-      </c>
-      <c r="H3" s="46">
-        <v>17000</v>
+        <v>5400</v>
+      </c>
+      <c r="H3">
+        <v>5500</v>
       </c>
       <c r="I3">
-        <v>3000</v>
+        <v>5600</v>
       </c>
       <c r="J3">
-        <v>3000</v>
+        <v>5700</v>
       </c>
       <c r="K3">
-        <v>3700</v>
+        <v>5800</v>
       </c>
       <c r="L3">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="M3">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="N3">
-        <v>3700</v>
+        <v>6100</v>
       </c>
       <c r="O3">
-        <v>5400</v>
+        <v>6200</v>
       </c>
       <c r="P3">
-        <v>5800</v>
+        <v>6300</v>
       </c>
       <c r="Q3">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="R3">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="S3">
-        <v>13000</v>
+        <v>6600</v>
       </c>
       <c r="T3">
-        <v>13000</v>
+        <v>6700</v>
       </c>
       <c r="U3">
-        <v>13000</v>
+        <v>6800</v>
       </c>
       <c r="V3">
-        <v>13000</v>
+        <v>6900</v>
       </c>
       <c r="W3">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="X3">
-        <v>17000</v>
+        <v>7100</v>
       </c>
       <c r="Y3">
-        <v>13000</v>
+        <v>7200</v>
       </c>
       <c r="Z3">
-        <v>13000</v>
+        <v>7300</v>
       </c>
       <c r="AA3">
-        <v>13000</v>
+        <v>7400</v>
       </c>
       <c r="AB3">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="AC3">
-        <v>22000</v>
+        <v>7600</v>
       </c>
       <c r="AD3">
-        <v>22000</v>
+        <v>7700</v>
       </c>
       <c r="AE3">
-        <v>22000</v>
+        <v>7800</v>
       </c>
       <c r="AF3">
-        <v>22000</v>
+        <v>7900</v>
       </c>
       <c r="AG3">
-        <v>22000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" t="s">
-        <v>110</v>
+      <c r="A4" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4">
+        <v>2500</v>
+      </c>
+      <c r="D4">
+        <v>2500</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4">
+        <v>3700</v>
+      </c>
+      <c r="G4">
+        <v>13000</v>
+      </c>
+      <c r="H4">
+        <v>17000</v>
+      </c>
+      <c r="I4">
+        <v>3000</v>
+      </c>
+      <c r="J4">
+        <v>3000</v>
+      </c>
+      <c r="K4">
+        <v>3700</v>
+      </c>
+      <c r="L4">
+        <v>13000</v>
+      </c>
+      <c r="M4">
+        <v>17000</v>
+      </c>
+      <c r="N4">
+        <v>3700</v>
+      </c>
+      <c r="O4">
+        <v>5400</v>
+      </c>
+      <c r="P4">
+        <v>5800</v>
+      </c>
+      <c r="Q4">
+        <v>13000</v>
+      </c>
+      <c r="R4">
+        <v>17000</v>
+      </c>
+      <c r="S4">
+        <v>13000</v>
+      </c>
+      <c r="T4">
+        <v>13000</v>
+      </c>
+      <c r="U4">
+        <v>13000</v>
+      </c>
+      <c r="V4">
+        <v>13000</v>
+      </c>
+      <c r="W4">
+        <v>13000</v>
+      </c>
+      <c r="X4">
+        <v>17000</v>
+      </c>
+      <c r="Y4">
+        <v>13000</v>
+      </c>
+      <c r="Z4">
+        <v>13000</v>
+      </c>
+      <c r="AA4">
+        <v>13000</v>
+      </c>
+      <c r="AB4">
+        <v>13000</v>
+      </c>
+      <c r="AC4">
+        <v>22000</v>
+      </c>
+      <c r="AD4">
+        <v>22000</v>
+      </c>
+      <c r="AE4">
+        <v>22000</v>
+      </c>
+      <c r="AF4">
+        <v>22000</v>
+      </c>
+      <c r="AG4">
+        <v>22000</v>
       </c>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" t="s">
-        <v>111</v>
+      <c r="A5" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5">
+        <v>2900</v>
+      </c>
+      <c r="D5">
+        <v>2900</v>
+      </c>
+      <c r="E5">
+        <v>3400</v>
+      </c>
+      <c r="F5">
+        <v>4300</v>
+      </c>
+      <c r="G5">
+        <v>13000</v>
+      </c>
+      <c r="H5">
+        <v>17000</v>
+      </c>
+      <c r="I5">
+        <v>3400</v>
+      </c>
+      <c r="J5">
+        <v>3400</v>
+      </c>
+      <c r="K5">
+        <v>4300</v>
+      </c>
+      <c r="L5">
+        <v>13000</v>
+      </c>
+      <c r="M5">
+        <v>17000</v>
+      </c>
+      <c r="N5">
+        <v>4300</v>
+      </c>
+      <c r="O5">
+        <v>5400</v>
+      </c>
+      <c r="P5">
+        <v>5600</v>
+      </c>
+      <c r="Q5">
+        <v>13000</v>
+      </c>
+      <c r="R5">
+        <v>17000</v>
+      </c>
+      <c r="S5">
+        <v>13000</v>
+      </c>
+      <c r="T5">
+        <v>13000</v>
+      </c>
+      <c r="U5">
+        <v>13000</v>
+      </c>
+      <c r="V5">
+        <v>13000</v>
+      </c>
+      <c r="W5">
+        <v>13000</v>
+      </c>
+      <c r="X5">
+        <v>17000</v>
+      </c>
+      <c r="Y5">
+        <v>13000</v>
+      </c>
+      <c r="Z5">
+        <v>13000</v>
+      </c>
+      <c r="AA5">
+        <v>13000</v>
+      </c>
+      <c r="AB5">
+        <v>13000</v>
+      </c>
+      <c r="AC5">
+        <v>22000</v>
+      </c>
+      <c r="AD5">
+        <v>22000</v>
+      </c>
+      <c r="AE5">
+        <v>22000</v>
+      </c>
+      <c r="AF5">
+        <v>22000</v>
+      </c>
+      <c r="AG5">
+        <v>22000</v>
       </c>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" t="s">
-        <v>112</v>
+      <c r="A6" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6">
+        <v>2100</v>
+      </c>
+      <c r="D6">
+        <v>2100</v>
+      </c>
+      <c r="E6">
+        <v>2600</v>
+      </c>
+      <c r="F6">
+        <v>3200</v>
+      </c>
+      <c r="G6">
+        <v>13000</v>
+      </c>
+      <c r="H6">
+        <v>17000</v>
+      </c>
+      <c r="I6">
+        <v>2600</v>
+      </c>
+      <c r="J6">
+        <v>2600</v>
+      </c>
+      <c r="K6">
+        <v>3200</v>
+      </c>
+      <c r="L6">
+        <v>13000</v>
+      </c>
+      <c r="M6">
+        <v>17000</v>
+      </c>
+      <c r="N6">
+        <v>3200</v>
+      </c>
+      <c r="O6">
+        <v>4700</v>
+      </c>
+      <c r="P6">
+        <v>5100</v>
+      </c>
+      <c r="Q6">
+        <v>13000</v>
+      </c>
+      <c r="R6">
+        <v>17000</v>
+      </c>
+      <c r="S6">
+        <v>13000</v>
+      </c>
+      <c r="T6">
+        <v>13000</v>
+      </c>
+      <c r="U6">
+        <v>13000</v>
+      </c>
+      <c r="V6">
+        <v>13000</v>
+      </c>
+      <c r="W6">
+        <v>13000</v>
+      </c>
+      <c r="X6">
+        <v>17000</v>
+      </c>
+      <c r="Y6">
+        <v>13000</v>
+      </c>
+      <c r="Z6">
+        <v>13000</v>
+      </c>
+      <c r="AA6">
+        <v>13000</v>
+      </c>
+      <c r="AB6">
+        <v>13000</v>
+      </c>
+      <c r="AC6">
+        <v>22000</v>
+      </c>
+      <c r="AD6">
+        <v>22000</v>
+      </c>
+      <c r="AE6">
+        <v>22000</v>
+      </c>
+      <c r="AF6">
+        <v>22000</v>
+      </c>
+      <c r="AG6">
+        <v>22000</v>
       </c>
     </row>
     <row r="7" spans="1:33">
-      <c r="A7" t="s">
-        <v>113</v>
+      <c r="A7" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="G7">
+        <v>13000</v>
+      </c>
+      <c r="H7">
+        <v>17000</v>
+      </c>
+      <c r="L7">
+        <v>13000</v>
+      </c>
+      <c r="M7">
+        <v>17000</v>
+      </c>
+      <c r="Q7">
+        <v>13000</v>
+      </c>
+      <c r="R7">
+        <v>17000</v>
+      </c>
+      <c r="S7">
+        <v>13000</v>
+      </c>
+      <c r="T7">
+        <v>13000</v>
+      </c>
+      <c r="U7">
+        <v>13000</v>
+      </c>
+      <c r="V7">
+        <v>13000</v>
+      </c>
+      <c r="W7">
+        <v>13000</v>
+      </c>
+      <c r="X7">
+        <v>17000</v>
+      </c>
+      <c r="Y7">
+        <v>13000</v>
+      </c>
+      <c r="Z7">
+        <v>13000</v>
+      </c>
+      <c r="AA7">
+        <v>13000</v>
+      </c>
+      <c r="AB7">
+        <v>13000</v>
+      </c>
+      <c r="AC7">
+        <v>22000</v>
+      </c>
+      <c r="AD7">
+        <v>22000</v>
+      </c>
+      <c r="AE7">
+        <v>22000</v>
+      </c>
+      <c r="AF7">
+        <v>22000</v>
+      </c>
+      <c r="AG7">
+        <v>22000</v>
       </c>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" t="s">
-        <v>114</v>
+      <c r="A8" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8">
+        <v>2500</v>
+      </c>
+      <c r="D8">
+        <v>2500</v>
+      </c>
+      <c r="E8">
+        <v>3400</v>
+      </c>
+      <c r="F8">
+        <v>3800</v>
+      </c>
+      <c r="G8">
+        <v>13000</v>
+      </c>
+      <c r="H8">
+        <v>17000</v>
+      </c>
+      <c r="I8">
+        <v>3400</v>
+      </c>
+      <c r="J8">
+        <v>3400</v>
+      </c>
+      <c r="K8">
+        <v>3800</v>
+      </c>
+      <c r="L8">
+        <v>13000</v>
+      </c>
+      <c r="M8">
+        <v>17000</v>
+      </c>
+      <c r="N8">
+        <v>3800</v>
+      </c>
+      <c r="O8">
+        <v>5400</v>
+      </c>
+      <c r="P8">
+        <v>5600</v>
+      </c>
+      <c r="Q8">
+        <v>13000</v>
+      </c>
+      <c r="R8">
+        <v>17000</v>
+      </c>
+      <c r="S8">
+        <v>13000</v>
+      </c>
+      <c r="T8">
+        <v>13000</v>
+      </c>
+      <c r="U8">
+        <v>13000</v>
+      </c>
+      <c r="V8">
+        <v>13000</v>
+      </c>
+      <c r="W8">
+        <v>13000</v>
+      </c>
+      <c r="X8">
+        <v>17000</v>
+      </c>
+      <c r="Y8">
+        <v>13000</v>
+      </c>
+      <c r="Z8">
+        <v>13000</v>
+      </c>
+      <c r="AA8">
+        <v>13000</v>
+      </c>
+      <c r="AB8">
+        <v>13000</v>
+      </c>
+      <c r="AC8">
+        <v>22000</v>
+      </c>
+      <c r="AD8">
+        <v>22000</v>
+      </c>
+      <c r="AE8">
+        <v>22000</v>
+      </c>
+      <c r="AF8">
+        <v>22000</v>
+      </c>
+      <c r="AG8">
+        <v>22000</v>
       </c>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" t="s">
-        <v>115</v>
+      <c r="A9" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="G9">
+        <v>13000</v>
+      </c>
+      <c r="H9">
+        <v>17000</v>
+      </c>
+      <c r="L9">
+        <v>13000</v>
+      </c>
+      <c r="M9">
+        <v>17000</v>
+      </c>
+      <c r="Q9">
+        <v>13000</v>
+      </c>
+      <c r="R9">
+        <v>17000</v>
+      </c>
+      <c r="S9">
+        <v>13000</v>
+      </c>
+      <c r="T9">
+        <v>13000</v>
+      </c>
+      <c r="U9">
+        <v>13000</v>
+      </c>
+      <c r="V9">
+        <v>13000</v>
+      </c>
+      <c r="W9">
+        <v>13000</v>
+      </c>
+      <c r="X9">
+        <v>17000</v>
+      </c>
+      <c r="Y9">
+        <v>13000</v>
+      </c>
+      <c r="Z9">
+        <v>13000</v>
+      </c>
+      <c r="AA9">
+        <v>13000</v>
+      </c>
+      <c r="AB9">
+        <v>13000</v>
+      </c>
+      <c r="AC9">
+        <v>22000</v>
+      </c>
+      <c r="AD9">
+        <v>22000</v>
+      </c>
+      <c r="AE9">
+        <v>22000</v>
+      </c>
+      <c r="AF9">
+        <v>22000</v>
+      </c>
+      <c r="AG9">
+        <v>22000</v>
       </c>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
+      <c r="A10" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="36"/>
       <c r="C10">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="D10">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="E10">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F10">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="G10">
         <v>13000</v>
@@ -1732,13 +2233,13 @@
         <v>17000</v>
       </c>
       <c r="I10">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J10">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K10">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="L10">
         <v>13000</v>
@@ -1747,7 +2248,7 @@
         <v>17000</v>
       </c>
       <c r="N10">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="O10">
         <v>5400</v>
@@ -1808,25 +2309,120 @@
       </c>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" t="s">
-        <v>117</v>
+      <c r="A11" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11">
+        <v>2900</v>
+      </c>
+      <c r="D11">
+        <v>2900</v>
+      </c>
+      <c r="E11">
+        <v>3400</v>
+      </c>
+      <c r="F11">
+        <v>4300</v>
+      </c>
+      <c r="G11">
+        <v>13000</v>
+      </c>
+      <c r="H11">
+        <v>17000</v>
+      </c>
+      <c r="I11">
+        <v>3400</v>
+      </c>
+      <c r="J11">
+        <v>3400</v>
+      </c>
+      <c r="K11">
+        <v>4300</v>
+      </c>
+      <c r="L11">
+        <v>13000</v>
+      </c>
+      <c r="M11">
+        <v>17000</v>
+      </c>
+      <c r="N11">
+        <v>4300</v>
+      </c>
+      <c r="O11">
+        <v>5400</v>
+      </c>
+      <c r="P11">
+        <v>5600</v>
+      </c>
+      <c r="Q11">
+        <v>13000</v>
+      </c>
+      <c r="R11">
+        <v>17000</v>
+      </c>
+      <c r="S11">
+        <v>13000</v>
+      </c>
+      <c r="T11">
+        <v>13000</v>
+      </c>
+      <c r="U11">
+        <v>13000</v>
+      </c>
+      <c r="V11">
+        <v>13000</v>
+      </c>
+      <c r="W11">
+        <v>13000</v>
+      </c>
+      <c r="X11">
+        <v>17000</v>
+      </c>
+      <c r="Y11">
+        <v>13000</v>
+      </c>
+      <c r="Z11">
+        <v>13000</v>
+      </c>
+      <c r="AA11">
+        <v>13000</v>
+      </c>
+      <c r="AB11">
+        <v>13000</v>
+      </c>
+      <c r="AC11">
+        <v>22000</v>
+      </c>
+      <c r="AD11">
+        <v>22000</v>
+      </c>
+      <c r="AE11">
+        <v>22000</v>
+      </c>
+      <c r="AF11">
+        <v>22000</v>
+      </c>
+      <c r="AG11">
+        <v>22000</v>
       </c>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
+      <c r="A12" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="36"/>
       <c r="C12">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="D12">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E12">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F12">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="G12">
         <v>13000</v>
@@ -1835,13 +2431,13 @@
         <v>17000</v>
       </c>
       <c r="I12">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="J12">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K12">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="L12">
         <v>13000</v>
@@ -1850,13 +2446,13 @@
         <v>17000</v>
       </c>
       <c r="N12">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="O12">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="P12">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="Q12">
         <v>13000</v>
@@ -1911,30 +2507,219 @@
       </c>
     </row>
     <row r="13" spans="1:33">
-      <c r="A13" t="s">
-        <v>119</v>
+      <c r="A13" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13">
+        <v>2500</v>
+      </c>
+      <c r="D13">
+        <v>2500</v>
+      </c>
+      <c r="E13">
+        <v>3000</v>
+      </c>
+      <c r="F13">
+        <v>4000</v>
+      </c>
+      <c r="G13">
+        <v>13000</v>
+      </c>
+      <c r="H13">
+        <v>17000</v>
+      </c>
+      <c r="I13">
+        <v>3000</v>
+      </c>
+      <c r="J13">
+        <v>3000</v>
+      </c>
+      <c r="K13">
+        <v>4000</v>
+      </c>
+      <c r="L13">
+        <v>13000</v>
+      </c>
+      <c r="M13">
+        <v>17000</v>
+      </c>
+      <c r="N13">
+        <v>4000</v>
+      </c>
+      <c r="O13">
+        <v>5000</v>
+      </c>
+      <c r="P13">
+        <v>5400</v>
+      </c>
+      <c r="Q13">
+        <v>13000</v>
+      </c>
+      <c r="R13">
+        <v>17000</v>
+      </c>
+      <c r="S13">
+        <v>13000</v>
+      </c>
+      <c r="T13">
+        <v>13000</v>
+      </c>
+      <c r="U13">
+        <v>13000</v>
+      </c>
+      <c r="V13">
+        <v>13000</v>
+      </c>
+      <c r="W13">
+        <v>13000</v>
+      </c>
+      <c r="X13">
+        <v>17000</v>
+      </c>
+      <c r="Y13">
+        <v>13000</v>
+      </c>
+      <c r="Z13">
+        <v>13000</v>
+      </c>
+      <c r="AA13">
+        <v>13000</v>
+      </c>
+      <c r="AB13">
+        <v>13000</v>
+      </c>
+      <c r="AC13">
+        <v>22000</v>
+      </c>
+      <c r="AD13">
+        <v>22000</v>
+      </c>
+      <c r="AE13">
+        <v>22000</v>
+      </c>
+      <c r="AF13">
+        <v>22000</v>
+      </c>
+      <c r="AG13">
+        <v>22000</v>
       </c>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" t="s">
-        <v>120</v>
+      <c r="A14" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14">
+        <v>3000</v>
+      </c>
+      <c r="D14">
+        <v>3500</v>
+      </c>
+      <c r="E14">
+        <v>4000</v>
+      </c>
+      <c r="F14">
+        <v>4500</v>
+      </c>
+      <c r="G14">
+        <v>13000</v>
+      </c>
+      <c r="H14">
+        <v>17000</v>
+      </c>
+      <c r="I14">
+        <v>4000</v>
+      </c>
+      <c r="J14">
+        <v>4000</v>
+      </c>
+      <c r="K14">
+        <v>4500</v>
+      </c>
+      <c r="L14">
+        <v>13000</v>
+      </c>
+      <c r="M14">
+        <v>17000</v>
+      </c>
+      <c r="N14">
+        <v>4500</v>
+      </c>
+      <c r="O14">
+        <v>5700</v>
+      </c>
+      <c r="P14">
+        <v>7000</v>
+      </c>
+      <c r="Q14">
+        <v>13000</v>
+      </c>
+      <c r="R14">
+        <v>17000</v>
+      </c>
+      <c r="S14">
+        <v>13000</v>
+      </c>
+      <c r="T14">
+        <v>13000</v>
+      </c>
+      <c r="U14">
+        <v>13000</v>
+      </c>
+      <c r="V14">
+        <v>13000</v>
+      </c>
+      <c r="W14">
+        <v>13000</v>
+      </c>
+      <c r="X14">
+        <v>17000</v>
+      </c>
+      <c r="Y14">
+        <v>13000</v>
+      </c>
+      <c r="Z14">
+        <v>13000</v>
+      </c>
+      <c r="AA14">
+        <v>13000</v>
+      </c>
+      <c r="AB14">
+        <v>13000</v>
+      </c>
+      <c r="AC14">
+        <v>22000</v>
+      </c>
+      <c r="AD14">
+        <v>22000</v>
+      </c>
+      <c r="AE14">
+        <v>22000</v>
+      </c>
+      <c r="AF14">
+        <v>22000</v>
+      </c>
+      <c r="AG14">
+        <v>22000</v>
       </c>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" t="s">
-        <v>121</v>
-      </c>
+      <c r="A15" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="36"/>
       <c r="C15">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="D15">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E15">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F15">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="G15">
         <v>13000</v>
@@ -1943,13 +2728,13 @@
         <v>17000</v>
       </c>
       <c r="I15">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J15">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K15">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="L15">
         <v>13000</v>
@@ -1958,13 +2743,13 @@
         <v>17000</v>
       </c>
       <c r="N15">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="O15">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="P15">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="Q15">
         <v>13000</v>
@@ -2019,30 +2804,219 @@
       </c>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" t="s">
-        <v>122</v>
+      <c r="A16" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16">
+        <v>2900</v>
+      </c>
+      <c r="D16">
+        <v>2900</v>
+      </c>
+      <c r="E16">
+        <v>3400</v>
+      </c>
+      <c r="F16">
+        <v>4300</v>
+      </c>
+      <c r="G16">
+        <v>13000</v>
+      </c>
+      <c r="H16">
+        <v>17000</v>
+      </c>
+      <c r="I16">
+        <v>3400</v>
+      </c>
+      <c r="J16">
+        <v>3400</v>
+      </c>
+      <c r="K16">
+        <v>4300</v>
+      </c>
+      <c r="L16">
+        <v>13000</v>
+      </c>
+      <c r="M16">
+        <v>17000</v>
+      </c>
+      <c r="N16">
+        <v>4300</v>
+      </c>
+      <c r="O16">
+        <v>5400</v>
+      </c>
+      <c r="P16">
+        <v>5600</v>
+      </c>
+      <c r="Q16">
+        <v>13000</v>
+      </c>
+      <c r="R16">
+        <v>17000</v>
+      </c>
+      <c r="S16">
+        <v>13000</v>
+      </c>
+      <c r="T16">
+        <v>13000</v>
+      </c>
+      <c r="U16">
+        <v>13000</v>
+      </c>
+      <c r="V16">
+        <v>13000</v>
+      </c>
+      <c r="W16">
+        <v>13000</v>
+      </c>
+      <c r="X16">
+        <v>17000</v>
+      </c>
+      <c r="Y16">
+        <v>13000</v>
+      </c>
+      <c r="Z16">
+        <v>13000</v>
+      </c>
+      <c r="AA16">
+        <v>13000</v>
+      </c>
+      <c r="AB16">
+        <v>13000</v>
+      </c>
+      <c r="AC16">
+        <v>22000</v>
+      </c>
+      <c r="AD16">
+        <v>22000</v>
+      </c>
+      <c r="AE16">
+        <v>22000</v>
+      </c>
+      <c r="AF16">
+        <v>22000</v>
+      </c>
+      <c r="AG16">
+        <v>22000</v>
       </c>
     </row>
     <row r="17" spans="1:33">
-      <c r="A17" t="s">
-        <v>123</v>
+      <c r="A17" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>2600</v>
+      </c>
+      <c r="F17">
+        <v>3170</v>
+      </c>
+      <c r="G17">
+        <v>13000</v>
+      </c>
+      <c r="H17">
+        <v>17000</v>
+      </c>
+      <c r="I17">
+        <v>2600</v>
+      </c>
+      <c r="J17">
+        <v>2600</v>
+      </c>
+      <c r="K17">
+        <v>3170</v>
+      </c>
+      <c r="L17">
+        <v>13000</v>
+      </c>
+      <c r="M17">
+        <v>17000</v>
+      </c>
+      <c r="N17">
+        <v>3170</v>
+      </c>
+      <c r="O17">
+        <v>4700</v>
+      </c>
+      <c r="P17">
+        <v>5200</v>
+      </c>
+      <c r="Q17">
+        <v>13000</v>
+      </c>
+      <c r="R17">
+        <v>17000</v>
+      </c>
+      <c r="S17">
+        <v>13000</v>
+      </c>
+      <c r="T17">
+        <v>13000</v>
+      </c>
+      <c r="U17">
+        <v>13000</v>
+      </c>
+      <c r="V17">
+        <v>13000</v>
+      </c>
+      <c r="W17">
+        <v>13000</v>
+      </c>
+      <c r="X17">
+        <v>17000</v>
+      </c>
+      <c r="Y17">
+        <v>13000</v>
+      </c>
+      <c r="Z17">
+        <v>13000</v>
+      </c>
+      <c r="AA17">
+        <v>13000</v>
+      </c>
+      <c r="AB17">
+        <v>13000</v>
+      </c>
+      <c r="AC17">
+        <v>22000</v>
+      </c>
+      <c r="AD17">
+        <v>22000</v>
+      </c>
+      <c r="AE17">
+        <v>22000</v>
+      </c>
+      <c r="AF17">
+        <v>22000</v>
+      </c>
+      <c r="AG17">
+        <v>22000</v>
       </c>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" t="s">
-        <v>124</v>
-      </c>
+      <c r="A18" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="36"/>
       <c r="C18">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="D18">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="E18">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="F18">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="G18">
         <v>13000</v>
@@ -2051,13 +3025,13 @@
         <v>17000</v>
       </c>
       <c r="I18">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="J18">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K18">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="L18">
         <v>13000</v>
@@ -2066,13 +3040,13 @@
         <v>17000</v>
       </c>
       <c r="N18">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="O18">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="P18">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="Q18">
         <v>13000</v>
@@ -2127,25 +3101,120 @@
       </c>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" t="s">
-        <v>125</v>
+      <c r="A19" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19">
+        <v>2100</v>
+      </c>
+      <c r="D19">
+        <v>2100</v>
+      </c>
+      <c r="E19">
+        <v>3000</v>
+      </c>
+      <c r="F19">
+        <v>3500</v>
+      </c>
+      <c r="G19">
+        <v>13000</v>
+      </c>
+      <c r="H19">
+        <v>17000</v>
+      </c>
+      <c r="I19">
+        <v>3000</v>
+      </c>
+      <c r="J19">
+        <v>3000</v>
+      </c>
+      <c r="K19">
+        <v>3500</v>
+      </c>
+      <c r="L19">
+        <v>13000</v>
+      </c>
+      <c r="M19">
+        <v>17000</v>
+      </c>
+      <c r="N19">
+        <v>3500</v>
+      </c>
+      <c r="O19">
+        <v>5200</v>
+      </c>
+      <c r="P19">
+        <v>5700</v>
+      </c>
+      <c r="Q19">
+        <v>13000</v>
+      </c>
+      <c r="R19">
+        <v>17000</v>
+      </c>
+      <c r="S19">
+        <v>13000</v>
+      </c>
+      <c r="T19">
+        <v>13000</v>
+      </c>
+      <c r="U19">
+        <v>13000</v>
+      </c>
+      <c r="V19">
+        <v>13000</v>
+      </c>
+      <c r="W19">
+        <v>13000</v>
+      </c>
+      <c r="X19">
+        <v>17000</v>
+      </c>
+      <c r="Y19">
+        <v>13000</v>
+      </c>
+      <c r="Z19">
+        <v>13000</v>
+      </c>
+      <c r="AA19">
+        <v>13000</v>
+      </c>
+      <c r="AB19">
+        <v>13000</v>
+      </c>
+      <c r="AC19">
+        <v>22000</v>
+      </c>
+      <c r="AD19">
+        <v>22000</v>
+      </c>
+      <c r="AE19">
+        <v>22000</v>
+      </c>
+      <c r="AF19">
+        <v>22000</v>
+      </c>
+      <c r="AG19">
+        <v>22000</v>
       </c>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" t="s">
-        <v>126</v>
-      </c>
+      <c r="A20" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="36"/>
       <c r="C20">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="D20">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E20">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="F20">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="G20">
         <v>13000</v>
@@ -2154,13 +3223,13 @@
         <v>17000</v>
       </c>
       <c r="I20">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="J20">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="K20">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="L20">
         <v>13000</v>
@@ -2169,13 +3238,13 @@
         <v>17000</v>
       </c>
       <c r="N20">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="O20">
         <v>5400</v>
       </c>
       <c r="P20">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="Q20">
         <v>13000</v>
@@ -2230,40 +3299,417 @@
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" t="s">
-        <v>127</v>
+      <c r="A21" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21">
+        <v>2500</v>
+      </c>
+      <c r="D21">
+        <v>2500</v>
+      </c>
+      <c r="E21">
+        <v>3000</v>
+      </c>
+      <c r="F21">
+        <v>3700</v>
+      </c>
+      <c r="G21">
+        <v>13000</v>
+      </c>
+      <c r="H21">
+        <v>17000</v>
+      </c>
+      <c r="I21">
+        <v>3000</v>
+      </c>
+      <c r="J21">
+        <v>3000</v>
+      </c>
+      <c r="K21">
+        <v>3700</v>
+      </c>
+      <c r="L21">
+        <v>13000</v>
+      </c>
+      <c r="M21">
+        <v>17000</v>
+      </c>
+      <c r="N21">
+        <v>3700</v>
+      </c>
+      <c r="O21">
+        <v>5400</v>
+      </c>
+      <c r="P21">
+        <v>5800</v>
+      </c>
+      <c r="Q21">
+        <v>13000</v>
+      </c>
+      <c r="R21">
+        <v>17000</v>
+      </c>
+      <c r="S21">
+        <v>13000</v>
+      </c>
+      <c r="T21">
+        <v>13000</v>
+      </c>
+      <c r="U21">
+        <v>13000</v>
+      </c>
+      <c r="V21">
+        <v>13000</v>
+      </c>
+      <c r="W21">
+        <v>13000</v>
+      </c>
+      <c r="X21">
+        <v>17000</v>
+      </c>
+      <c r="Y21">
+        <v>13000</v>
+      </c>
+      <c r="Z21">
+        <v>13000</v>
+      </c>
+      <c r="AA21">
+        <v>13000</v>
+      </c>
+      <c r="AB21">
+        <v>13000</v>
+      </c>
+      <c r="AC21">
+        <v>22000</v>
+      </c>
+      <c r="AD21">
+        <v>22000</v>
+      </c>
+      <c r="AE21">
+        <v>22000</v>
+      </c>
+      <c r="AF21">
+        <v>22000</v>
+      </c>
+      <c r="AG21">
+        <v>22000</v>
       </c>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" t="s">
-        <v>128</v>
+      <c r="A22" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22">
+        <v>2500</v>
+      </c>
+      <c r="D22">
+        <v>2500</v>
+      </c>
+      <c r="E22">
+        <v>3400</v>
+      </c>
+      <c r="F22">
+        <v>3800</v>
+      </c>
+      <c r="G22">
+        <v>13000</v>
+      </c>
+      <c r="H22">
+        <v>17000</v>
+      </c>
+      <c r="I22">
+        <v>3400</v>
+      </c>
+      <c r="J22">
+        <v>3400</v>
+      </c>
+      <c r="K22">
+        <v>3800</v>
+      </c>
+      <c r="L22">
+        <v>13000</v>
+      </c>
+      <c r="M22">
+        <v>17000</v>
+      </c>
+      <c r="N22">
+        <v>3800</v>
+      </c>
+      <c r="O22">
+        <v>5400</v>
+      </c>
+      <c r="P22">
+        <v>5600</v>
+      </c>
+      <c r="Q22">
+        <v>13000</v>
+      </c>
+      <c r="R22">
+        <v>17000</v>
+      </c>
+      <c r="S22">
+        <v>13000</v>
+      </c>
+      <c r="T22">
+        <v>13000</v>
+      </c>
+      <c r="U22">
+        <v>13000</v>
+      </c>
+      <c r="V22">
+        <v>13000</v>
+      </c>
+      <c r="W22">
+        <v>13000</v>
+      </c>
+      <c r="X22">
+        <v>17000</v>
+      </c>
+      <c r="Y22">
+        <v>13000</v>
+      </c>
+      <c r="Z22">
+        <v>13000</v>
+      </c>
+      <c r="AA22">
+        <v>13000</v>
+      </c>
+      <c r="AB22">
+        <v>13000</v>
+      </c>
+      <c r="AC22">
+        <v>22000</v>
+      </c>
+      <c r="AD22">
+        <v>22000</v>
+      </c>
+      <c r="AE22">
+        <v>22000</v>
+      </c>
+      <c r="AF22">
+        <v>22000</v>
+      </c>
+      <c r="AG22">
+        <v>22000</v>
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" t="s">
-        <v>129</v>
+      <c r="A23" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23">
+        <v>2700</v>
+      </c>
+      <c r="D23">
+        <v>2700</v>
+      </c>
+      <c r="E23">
+        <v>3200</v>
+      </c>
+      <c r="F23">
+        <v>3800</v>
+      </c>
+      <c r="G23">
+        <v>13000</v>
+      </c>
+      <c r="H23">
+        <v>17000</v>
+      </c>
+      <c r="I23">
+        <v>3200</v>
+      </c>
+      <c r="J23">
+        <v>3200</v>
+      </c>
+      <c r="K23">
+        <v>3800</v>
+      </c>
+      <c r="L23">
+        <v>13000</v>
+      </c>
+      <c r="M23">
+        <v>17000</v>
+      </c>
+      <c r="N23">
+        <v>3800</v>
+      </c>
+      <c r="O23">
+        <v>5400</v>
+      </c>
+      <c r="P23">
+        <v>5600</v>
+      </c>
+      <c r="Q23">
+        <v>13000</v>
+      </c>
+      <c r="R23">
+        <v>17000</v>
+      </c>
+      <c r="S23">
+        <v>13000</v>
+      </c>
+      <c r="T23">
+        <v>13000</v>
+      </c>
+      <c r="U23">
+        <v>13000</v>
+      </c>
+      <c r="V23">
+        <v>13000</v>
+      </c>
+      <c r="W23">
+        <v>13000</v>
+      </c>
+      <c r="X23">
+        <v>17000</v>
+      </c>
+      <c r="Y23">
+        <v>13000</v>
+      </c>
+      <c r="Z23">
+        <v>13000</v>
+      </c>
+      <c r="AA23">
+        <v>13000</v>
+      </c>
+      <c r="AB23">
+        <v>13000</v>
+      </c>
+      <c r="AC23">
+        <v>22000</v>
+      </c>
+      <c r="AD23">
+        <v>22000</v>
+      </c>
+      <c r="AE23">
+        <v>22000</v>
+      </c>
+      <c r="AF23">
+        <v>22000</v>
+      </c>
+      <c r="AG23">
+        <v>22000</v>
       </c>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" t="s">
-        <v>130</v>
+      <c r="A24" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24">
+        <v>2700</v>
+      </c>
+      <c r="D24">
+        <v>2700</v>
+      </c>
+      <c r="E24">
+        <v>3200</v>
+      </c>
+      <c r="F24">
+        <v>3800</v>
+      </c>
+      <c r="G24">
+        <v>13000</v>
+      </c>
+      <c r="H24">
+        <v>17000</v>
+      </c>
+      <c r="I24">
+        <v>3200</v>
+      </c>
+      <c r="J24">
+        <v>3200</v>
+      </c>
+      <c r="K24">
+        <v>3800</v>
+      </c>
+      <c r="L24">
+        <v>13000</v>
+      </c>
+      <c r="M24">
+        <v>17000</v>
+      </c>
+      <c r="N24">
+        <v>3800</v>
+      </c>
+      <c r="O24">
+        <v>5400</v>
+      </c>
+      <c r="P24">
+        <v>5600</v>
+      </c>
+      <c r="Q24">
+        <v>13000</v>
+      </c>
+      <c r="R24">
+        <v>17000</v>
+      </c>
+      <c r="S24">
+        <v>13000</v>
+      </c>
+      <c r="T24">
+        <v>13000</v>
+      </c>
+      <c r="U24">
+        <v>13000</v>
+      </c>
+      <c r="V24">
+        <v>13000</v>
+      </c>
+      <c r="W24">
+        <v>13000</v>
+      </c>
+      <c r="X24">
+        <v>17000</v>
+      </c>
+      <c r="Y24">
+        <v>13000</v>
+      </c>
+      <c r="Z24">
+        <v>13000</v>
+      </c>
+      <c r="AA24">
+        <v>13000</v>
+      </c>
+      <c r="AB24">
+        <v>13000</v>
+      </c>
+      <c r="AC24">
+        <v>22000</v>
+      </c>
+      <c r="AD24">
+        <v>22000</v>
+      </c>
+      <c r="AE24">
+        <v>22000</v>
+      </c>
+      <c r="AF24">
+        <v>22000</v>
+      </c>
+      <c r="AG24">
+        <v>22000</v>
       </c>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" t="s">
-        <v>131</v>
-      </c>
+      <c r="A25" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="36"/>
       <c r="C25">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="D25">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E25">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F25">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="G25">
         <v>13000</v>
@@ -2272,13 +3718,13 @@
         <v>17000</v>
       </c>
       <c r="I25">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J25">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K25">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="L25">
         <v>13000</v>
@@ -2287,13 +3733,13 @@
         <v>17000</v>
       </c>
       <c r="N25">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="O25">
+        <v>5400</v>
+      </c>
+      <c r="P25">
         <v>5600</v>
-      </c>
-      <c r="P25">
-        <v>5800</v>
       </c>
       <c r="Q25">
         <v>13000</v>
@@ -2348,20 +3794,21 @@
       </c>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" t="s">
-        <v>132</v>
-      </c>
+      <c r="A26" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="36"/>
       <c r="C26">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D26">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E26">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="F26">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="G26">
         <v>13000</v>
@@ -2370,13 +3817,13 @@
         <v>17000</v>
       </c>
       <c r="I26">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="J26">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="K26">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="L26">
         <v>13000</v>
@@ -2385,13 +3832,13 @@
         <v>17000</v>
       </c>
       <c r="N26">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="O26">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="P26">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="Q26">
         <v>13000</v>
@@ -2446,20 +3893,21 @@
       </c>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" t="s">
-        <v>133</v>
-      </c>
+      <c r="A27" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="36"/>
       <c r="C27">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="D27">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="E27">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="F27">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="G27">
         <v>13000</v>
@@ -2468,13 +3916,13 @@
         <v>17000</v>
       </c>
       <c r="I27">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="J27">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K27">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="L27">
         <v>13000</v>
@@ -2483,13 +3931,13 @@
         <v>17000</v>
       </c>
       <c r="N27">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="O27">
+        <v>5400</v>
+      </c>
+      <c r="P27">
         <v>5600</v>
-      </c>
-      <c r="P27">
-        <v>5800</v>
       </c>
       <c r="Q27">
         <v>13000</v>
@@ -2544,20 +3992,21 @@
       </c>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
+      <c r="A28" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="36"/>
       <c r="C28">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="D28">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E28">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F28">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="G28">
         <v>13000</v>
@@ -2566,13 +4015,13 @@
         <v>17000</v>
       </c>
       <c r="I28">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J28">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K28">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="L28">
         <v>13000</v>
@@ -2581,13 +4030,13 @@
         <v>17000</v>
       </c>
       <c r="N28">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="O28">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="P28">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="Q28">
         <v>13000</v>
@@ -2642,25 +4091,120 @@
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" t="s">
-        <v>135</v>
+      <c r="A29" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29">
+        <v>2900</v>
+      </c>
+      <c r="D29">
+        <v>2900</v>
+      </c>
+      <c r="E29">
+        <v>3400</v>
+      </c>
+      <c r="F29">
+        <v>4300</v>
+      </c>
+      <c r="G29">
+        <v>13000</v>
+      </c>
+      <c r="H29">
+        <v>17000</v>
+      </c>
+      <c r="I29">
+        <v>3400</v>
+      </c>
+      <c r="J29">
+        <v>3400</v>
+      </c>
+      <c r="K29">
+        <v>4300</v>
+      </c>
+      <c r="L29">
+        <v>13000</v>
+      </c>
+      <c r="M29">
+        <v>17000</v>
+      </c>
+      <c r="N29">
+        <v>4300</v>
+      </c>
+      <c r="O29">
+        <v>5400</v>
+      </c>
+      <c r="P29">
+        <v>5600</v>
+      </c>
+      <c r="Q29">
+        <v>13000</v>
+      </c>
+      <c r="R29">
+        <v>17000</v>
+      </c>
+      <c r="S29">
+        <v>13000</v>
+      </c>
+      <c r="T29">
+        <v>13000</v>
+      </c>
+      <c r="U29">
+        <v>13000</v>
+      </c>
+      <c r="V29">
+        <v>13000</v>
+      </c>
+      <c r="W29">
+        <v>13000</v>
+      </c>
+      <c r="X29">
+        <v>17000</v>
+      </c>
+      <c r="Y29">
+        <v>13000</v>
+      </c>
+      <c r="Z29">
+        <v>13000</v>
+      </c>
+      <c r="AA29">
+        <v>13000</v>
+      </c>
+      <c r="AB29">
+        <v>13000</v>
+      </c>
+      <c r="AC29">
+        <v>22000</v>
+      </c>
+      <c r="AD29">
+        <v>22000</v>
+      </c>
+      <c r="AE29">
+        <v>22000</v>
+      </c>
+      <c r="AF29">
+        <v>22000</v>
+      </c>
+      <c r="AG29">
+        <v>22000</v>
       </c>
     </row>
     <row r="30" spans="1:33">
-      <c r="A30" t="s">
-        <v>136</v>
-      </c>
+      <c r="A30" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="36"/>
       <c r="C30">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="D30">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="E30">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F30">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="G30">
         <v>13000</v>
@@ -2669,13 +4213,13 @@
         <v>17000</v>
       </c>
       <c r="I30">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="J30">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K30">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="L30">
         <v>13000</v>
@@ -2684,13 +4228,13 @@
         <v>17000</v>
       </c>
       <c r="N30">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="O30">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="P30">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="Q30">
         <v>13000</v>
@@ -2745,19 +4289,114 @@
       </c>
     </row>
     <row r="31" spans="1:33">
-      <c r="A31" t="s">
-        <v>137</v>
+      <c r="A31" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31">
+        <v>2400</v>
+      </c>
+      <c r="D31">
+        <v>2400</v>
+      </c>
+      <c r="E31">
+        <v>3000</v>
+      </c>
+      <c r="F31">
+        <v>3600</v>
+      </c>
+      <c r="G31">
+        <v>13000</v>
+      </c>
+      <c r="H31">
+        <v>17000</v>
+      </c>
+      <c r="I31">
+        <v>3000</v>
+      </c>
+      <c r="J31">
+        <v>3000</v>
+      </c>
+      <c r="K31">
+        <v>3600</v>
+      </c>
+      <c r="L31">
+        <v>13000</v>
+      </c>
+      <c r="M31">
+        <v>17000</v>
+      </c>
+      <c r="N31">
+        <v>3600</v>
+      </c>
+      <c r="O31">
+        <v>5300</v>
+      </c>
+      <c r="P31">
+        <v>5800</v>
+      </c>
+      <c r="Q31">
+        <v>13000</v>
+      </c>
+      <c r="R31">
+        <v>17000</v>
+      </c>
+      <c r="S31">
+        <v>13000</v>
+      </c>
+      <c r="T31">
+        <v>13000</v>
+      </c>
+      <c r="U31">
+        <v>13000</v>
+      </c>
+      <c r="V31">
+        <v>13000</v>
+      </c>
+      <c r="W31">
+        <v>13000</v>
+      </c>
+      <c r="X31">
+        <v>17000</v>
+      </c>
+      <c r="Y31">
+        <v>13000</v>
+      </c>
+      <c r="Z31">
+        <v>13000</v>
+      </c>
+      <c r="AA31">
+        <v>13000</v>
+      </c>
+      <c r="AB31">
+        <v>13000</v>
+      </c>
+      <c r="AC31">
+        <v>22000</v>
+      </c>
+      <c r="AD31">
+        <v>22000</v>
+      </c>
+      <c r="AE31">
+        <v>22000</v>
+      </c>
+      <c r="AF31">
+        <v>22000</v>
+      </c>
+      <c r="AG31">
+        <v>22000</v>
       </c>
     </row>
     <row r="32" spans="1:33">
-      <c r="A32" t="s">
-        <v>138</v>
-      </c>
+      <c r="A32" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="36"/>
       <c r="C32">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="D32">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E32">
         <v>3400</v>
@@ -2848,20 +4487,21 @@
       </c>
     </row>
     <row r="33" spans="1:33">
-      <c r="A33" t="s">
-        <v>139</v>
-      </c>
+      <c r="A33" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="36"/>
       <c r="C33">
-        <v>2150</v>
+        <v>2900</v>
       </c>
       <c r="D33">
-        <v>2150</v>
+        <v>2900</v>
       </c>
       <c r="E33">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F33">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="G33">
         <v>13000</v>
@@ -2870,13 +4510,13 @@
         <v>17000</v>
       </c>
       <c r="I33">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="J33">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K33">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="L33">
         <v>13000</v>
@@ -2885,13 +4525,13 @@
         <v>17000</v>
       </c>
       <c r="N33">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="O33">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="P33">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="Q33">
         <v>13000</v>
@@ -2946,25 +4586,120 @@
       </c>
     </row>
     <row r="34" spans="1:33">
-      <c r="A34" t="s">
-        <v>140</v>
+      <c r="A34" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34">
+        <v>2150</v>
+      </c>
+      <c r="D34">
+        <v>2150</v>
+      </c>
+      <c r="E34">
+        <v>3000</v>
+      </c>
+      <c r="F34">
+        <v>3700</v>
+      </c>
+      <c r="G34">
+        <v>13000</v>
+      </c>
+      <c r="H34">
+        <v>17000</v>
+      </c>
+      <c r="I34">
+        <v>3000</v>
+      </c>
+      <c r="J34">
+        <v>3000</v>
+      </c>
+      <c r="K34">
+        <v>3700</v>
+      </c>
+      <c r="L34">
+        <v>13000</v>
+      </c>
+      <c r="M34">
+        <v>17000</v>
+      </c>
+      <c r="N34">
+        <v>3700</v>
+      </c>
+      <c r="O34">
+        <v>5300</v>
+      </c>
+      <c r="P34">
+        <v>5700</v>
+      </c>
+      <c r="Q34">
+        <v>13000</v>
+      </c>
+      <c r="R34">
+        <v>17000</v>
+      </c>
+      <c r="S34">
+        <v>13000</v>
+      </c>
+      <c r="T34">
+        <v>13000</v>
+      </c>
+      <c r="U34">
+        <v>13000</v>
+      </c>
+      <c r="V34">
+        <v>13000</v>
+      </c>
+      <c r="W34">
+        <v>13000</v>
+      </c>
+      <c r="X34">
+        <v>17000</v>
+      </c>
+      <c r="Y34">
+        <v>13000</v>
+      </c>
+      <c r="Z34">
+        <v>13000</v>
+      </c>
+      <c r="AA34">
+        <v>13000</v>
+      </c>
+      <c r="AB34">
+        <v>13000</v>
+      </c>
+      <c r="AC34">
+        <v>22000</v>
+      </c>
+      <c r="AD34">
+        <v>22000</v>
+      </c>
+      <c r="AE34">
+        <v>22000</v>
+      </c>
+      <c r="AF34">
+        <v>22000</v>
+      </c>
+      <c r="AG34">
+        <v>22000</v>
       </c>
     </row>
     <row r="35" spans="1:33">
-      <c r="A35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35">
-        <v>2670</v>
-      </c>
-      <c r="D35">
-        <v>2670</v>
-      </c>
-      <c r="E35">
-        <v>3200</v>
-      </c>
-      <c r="F35">
-        <v>4200</v>
+      <c r="A35" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37">
+        <v>3000</v>
+      </c>
+      <c r="D35" s="37">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="37">
+        <v>3500</v>
+      </c>
+      <c r="F35" s="37">
+        <v>4800</v>
       </c>
       <c r="G35">
         <v>13000</v>
@@ -2972,14 +4707,14 @@
       <c r="H35">
         <v>17000</v>
       </c>
-      <c r="I35">
-        <v>3200</v>
-      </c>
-      <c r="J35">
-        <v>3200</v>
-      </c>
-      <c r="K35">
-        <v>4200</v>
+      <c r="I35" s="37">
+        <v>3500</v>
+      </c>
+      <c r="J35" s="37">
+        <v>3500</v>
+      </c>
+      <c r="K35" s="37">
+        <v>4800</v>
       </c>
       <c r="L35">
         <v>13000</v>
@@ -2987,13 +4722,13 @@
       <c r="M35">
         <v>17000</v>
       </c>
-      <c r="N35">
-        <v>4200</v>
-      </c>
-      <c r="O35">
-        <v>5400</v>
-      </c>
-      <c r="P35">
+      <c r="N35" s="37">
+        <v>4800</v>
+      </c>
+      <c r="O35" s="37">
+        <v>5600</v>
+      </c>
+      <c r="P35" s="37">
         <v>5800</v>
       </c>
       <c r="Q35">
@@ -3049,17 +4784,18 @@
       </c>
     </row>
     <row r="36" spans="1:33">
-      <c r="A36" t="s">
-        <v>142</v>
-      </c>
+      <c r="A36" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="36"/>
       <c r="C36">
-        <v>2500</v>
+        <v>2670</v>
       </c>
       <c r="D36">
-        <v>2500</v>
+        <v>2670</v>
       </c>
       <c r="E36">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F36">
         <v>4200</v>
@@ -3071,10 +4807,10 @@
         <v>17000</v>
       </c>
       <c r="I36">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J36">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K36">
         <v>4200</v>
@@ -3089,10 +4825,10 @@
         <v>4200</v>
       </c>
       <c r="O36">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="P36">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="Q36">
         <v>13000</v>
@@ -3147,31 +4883,220 @@
       </c>
     </row>
     <row r="37" spans="1:33">
-      <c r="A37" t="s">
-        <v>143</v>
+      <c r="A37" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37">
+        <v>2500</v>
+      </c>
+      <c r="D37">
+        <v>2500</v>
+      </c>
+      <c r="E37">
+        <v>3300</v>
+      </c>
+      <c r="F37">
+        <v>4200</v>
+      </c>
+      <c r="G37">
+        <v>13000</v>
+      </c>
+      <c r="H37">
+        <v>17000</v>
+      </c>
+      <c r="I37">
+        <v>3300</v>
+      </c>
+      <c r="J37">
+        <v>3300</v>
+      </c>
+      <c r="K37">
+        <v>4200</v>
+      </c>
+      <c r="L37">
+        <v>13000</v>
+      </c>
+      <c r="M37">
+        <v>17000</v>
+      </c>
+      <c r="N37">
+        <v>4200</v>
+      </c>
+      <c r="O37">
+        <v>5300</v>
+      </c>
+      <c r="P37">
+        <v>5500</v>
+      </c>
+      <c r="Q37">
+        <v>13000</v>
+      </c>
+      <c r="R37">
+        <v>17000</v>
+      </c>
+      <c r="S37">
+        <v>13000</v>
+      </c>
+      <c r="T37">
+        <v>13000</v>
+      </c>
+      <c r="U37">
+        <v>13000</v>
+      </c>
+      <c r="V37">
+        <v>13000</v>
+      </c>
+      <c r="W37">
+        <v>13000</v>
+      </c>
+      <c r="X37">
+        <v>17000</v>
+      </c>
+      <c r="Y37">
+        <v>13000</v>
+      </c>
+      <c r="Z37">
+        <v>13000</v>
+      </c>
+      <c r="AA37">
+        <v>13000</v>
+      </c>
+      <c r="AB37">
+        <v>13000</v>
+      </c>
+      <c r="AC37">
+        <v>22000</v>
+      </c>
+      <c r="AD37">
+        <v>22000</v>
+      </c>
+      <c r="AE37">
+        <v>22000</v>
+      </c>
+      <c r="AF37">
+        <v>22000</v>
+      </c>
+      <c r="AG37">
+        <v>22000</v>
       </c>
     </row>
     <row r="38" spans="1:33">
-      <c r="A38" t="s">
-        <v>144</v>
+      <c r="A38" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37">
+        <v>2700</v>
+      </c>
+      <c r="D38" s="37">
+        <v>2800</v>
+      </c>
+      <c r="E38" s="37">
+        <v>3300</v>
+      </c>
+      <c r="F38" s="37">
+        <v>4600</v>
+      </c>
+      <c r="G38">
+        <v>13000</v>
+      </c>
+      <c r="H38">
+        <v>17000</v>
+      </c>
+      <c r="I38" s="37">
+        <v>3300</v>
+      </c>
+      <c r="J38" s="37">
+        <v>3300</v>
+      </c>
+      <c r="K38" s="37">
+        <v>4600</v>
+      </c>
+      <c r="L38">
+        <v>13000</v>
+      </c>
+      <c r="M38">
+        <v>17000</v>
+      </c>
+      <c r="N38" s="37">
+        <v>4600</v>
+      </c>
+      <c r="O38" s="37">
+        <v>5600</v>
+      </c>
+      <c r="P38" s="37">
+        <v>5800</v>
+      </c>
+      <c r="Q38">
+        <v>13000</v>
+      </c>
+      <c r="R38">
+        <v>17000</v>
+      </c>
+      <c r="S38">
+        <v>13000</v>
+      </c>
+      <c r="T38">
+        <v>13000</v>
+      </c>
+      <c r="U38">
+        <v>13000</v>
+      </c>
+      <c r="V38">
+        <v>13000</v>
+      </c>
+      <c r="W38">
+        <v>13000</v>
+      </c>
+      <c r="X38">
+        <v>17000</v>
+      </c>
+      <c r="Y38">
+        <v>13000</v>
+      </c>
+      <c r="Z38">
+        <v>13000</v>
+      </c>
+      <c r="AA38">
+        <v>13000</v>
+      </c>
+      <c r="AB38">
+        <v>13000</v>
+      </c>
+      <c r="AC38">
+        <v>22000</v>
+      </c>
+      <c r="AD38">
+        <v>22000</v>
+      </c>
+      <c r="AE38">
+        <v>22000</v>
+      </c>
+      <c r="AF38">
+        <v>22000</v>
+      </c>
+      <c r="AG38">
+        <v>22000</v>
       </c>
     </row>
     <row r="39" spans="1:33">
-      <c r="A39" t="s">
-        <v>145</v>
-      </c>
+      <c r="A39" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="36"/>
       <c r="C39">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="D39">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="E39">
+        <v>2600</v>
+      </c>
+      <c r="F39">
         <v>3200</v>
       </c>
-      <c r="F39">
-        <v>4300</v>
-      </c>
       <c r="G39">
         <v>13000</v>
       </c>
@@ -3179,28 +5104,28 @@
         <v>17000</v>
       </c>
       <c r="I39">
+        <v>2600</v>
+      </c>
+      <c r="J39">
+        <v>2600</v>
+      </c>
+      <c r="K39">
         <v>3200</v>
       </c>
-      <c r="J39">
+      <c r="L39">
+        <v>13000</v>
+      </c>
+      <c r="M39">
+        <v>17000</v>
+      </c>
+      <c r="N39">
         <v>3200</v>
       </c>
-      <c r="K39">
-        <v>4300</v>
-      </c>
-      <c r="L39">
-        <v>13000</v>
-      </c>
-      <c r="M39">
-        <v>17000</v>
-      </c>
-      <c r="N39">
-        <v>4300</v>
-      </c>
       <c r="O39">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="P39">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="Q39">
         <v>13000</v>
@@ -3255,25 +5180,120 @@
       </c>
     </row>
     <row r="40" spans="1:33">
-      <c r="A40" t="s">
-        <v>146</v>
+      <c r="A40" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40">
+        <v>2700</v>
+      </c>
+      <c r="D40">
+        <v>2700</v>
+      </c>
+      <c r="E40">
+        <v>3200</v>
+      </c>
+      <c r="F40">
+        <v>4300</v>
+      </c>
+      <c r="G40">
+        <v>13000</v>
+      </c>
+      <c r="H40">
+        <v>17000</v>
+      </c>
+      <c r="I40">
+        <v>3200</v>
+      </c>
+      <c r="J40">
+        <v>3200</v>
+      </c>
+      <c r="K40">
+        <v>4300</v>
+      </c>
+      <c r="L40">
+        <v>13000</v>
+      </c>
+      <c r="M40">
+        <v>17000</v>
+      </c>
+      <c r="N40">
+        <v>4300</v>
+      </c>
+      <c r="O40">
+        <v>5400</v>
+      </c>
+      <c r="P40">
+        <v>5600</v>
+      </c>
+      <c r="Q40">
+        <v>13000</v>
+      </c>
+      <c r="R40">
+        <v>17000</v>
+      </c>
+      <c r="S40">
+        <v>13000</v>
+      </c>
+      <c r="T40">
+        <v>13000</v>
+      </c>
+      <c r="U40">
+        <v>13000</v>
+      </c>
+      <c r="V40">
+        <v>13000</v>
+      </c>
+      <c r="W40">
+        <v>13000</v>
+      </c>
+      <c r="X40">
+        <v>17000</v>
+      </c>
+      <c r="Y40">
+        <v>13000</v>
+      </c>
+      <c r="Z40">
+        <v>13000</v>
+      </c>
+      <c r="AA40">
+        <v>13000</v>
+      </c>
+      <c r="AB40">
+        <v>13000</v>
+      </c>
+      <c r="AC40">
+        <v>22000</v>
+      </c>
+      <c r="AD40">
+        <v>22000</v>
+      </c>
+      <c r="AE40">
+        <v>22000</v>
+      </c>
+      <c r="AF40">
+        <v>22000</v>
+      </c>
+      <c r="AG40">
+        <v>22000</v>
       </c>
     </row>
     <row r="41" spans="1:33">
-      <c r="A41" t="s">
-        <v>147</v>
-      </c>
+      <c r="A41" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="36"/>
       <c r="C41">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="D41">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E41">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F41">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="G41">
         <v>13000</v>
@@ -3282,13 +5302,13 @@
         <v>17000</v>
       </c>
       <c r="I41">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J41">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K41">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="L41">
         <v>13000</v>
@@ -3297,13 +5317,13 @@
         <v>17000</v>
       </c>
       <c r="N41">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="O41">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="P41">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="Q41">
         <v>13000</v>
@@ -3358,32 +5378,315 @@
       </c>
     </row>
     <row r="42" spans="1:33">
-      <c r="A42" t="s">
-        <v>148</v>
+      <c r="A42" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42">
+        <v>2900</v>
+      </c>
+      <c r="D42">
+        <v>2900</v>
+      </c>
+      <c r="E42">
+        <v>3400</v>
+      </c>
+      <c r="F42">
+        <v>4300</v>
+      </c>
+      <c r="G42">
+        <v>13000</v>
+      </c>
+      <c r="H42">
+        <v>17000</v>
+      </c>
+      <c r="I42">
+        <v>3400</v>
+      </c>
+      <c r="J42">
+        <v>3400</v>
+      </c>
+      <c r="K42">
+        <v>4300</v>
+      </c>
+      <c r="L42">
+        <v>13000</v>
+      </c>
+      <c r="M42">
+        <v>17000</v>
+      </c>
+      <c r="N42">
+        <v>4300</v>
+      </c>
+      <c r="O42">
+        <v>5400</v>
+      </c>
+      <c r="P42">
+        <v>5600</v>
+      </c>
+      <c r="Q42">
+        <v>13000</v>
+      </c>
+      <c r="R42">
+        <v>17000</v>
+      </c>
+      <c r="S42">
+        <v>13000</v>
+      </c>
+      <c r="T42">
+        <v>13000</v>
+      </c>
+      <c r="U42">
+        <v>13000</v>
+      </c>
+      <c r="V42">
+        <v>13000</v>
+      </c>
+      <c r="W42">
+        <v>13000</v>
+      </c>
+      <c r="X42">
+        <v>17000</v>
+      </c>
+      <c r="Y42">
+        <v>13000</v>
+      </c>
+      <c r="Z42">
+        <v>13000</v>
+      </c>
+      <c r="AA42">
+        <v>13000</v>
+      </c>
+      <c r="AB42">
+        <v>13000</v>
+      </c>
+      <c r="AC42">
+        <v>22000</v>
+      </c>
+      <c r="AD42">
+        <v>22000</v>
+      </c>
+      <c r="AE42">
+        <v>22000</v>
+      </c>
+      <c r="AF42">
+        <v>22000</v>
+      </c>
+      <c r="AG42">
+        <v>22000</v>
       </c>
     </row>
     <row r="43" spans="1:33">
-      <c r="A43" t="s">
-        <v>149</v>
+      <c r="A43" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43">
+        <v>2900</v>
+      </c>
+      <c r="D43">
+        <v>2900</v>
+      </c>
+      <c r="E43">
+        <v>3400</v>
+      </c>
+      <c r="F43">
+        <v>4300</v>
+      </c>
+      <c r="G43">
+        <v>13000</v>
+      </c>
+      <c r="H43">
+        <v>17000</v>
+      </c>
+      <c r="I43">
+        <v>3400</v>
+      </c>
+      <c r="J43">
+        <v>3400</v>
+      </c>
+      <c r="K43">
+        <v>4300</v>
+      </c>
+      <c r="L43">
+        <v>13000</v>
+      </c>
+      <c r="M43">
+        <v>17000</v>
+      </c>
+      <c r="N43">
+        <v>4300</v>
+      </c>
+      <c r="O43">
+        <v>5400</v>
+      </c>
+      <c r="P43">
+        <v>5600</v>
+      </c>
+      <c r="Q43">
+        <v>13000</v>
+      </c>
+      <c r="R43">
+        <v>17000</v>
+      </c>
+      <c r="S43">
+        <v>13000</v>
+      </c>
+      <c r="T43">
+        <v>13000</v>
+      </c>
+      <c r="U43">
+        <v>13000</v>
+      </c>
+      <c r="V43">
+        <v>13000</v>
+      </c>
+      <c r="W43">
+        <v>13000</v>
+      </c>
+      <c r="X43">
+        <v>17000</v>
+      </c>
+      <c r="Y43">
+        <v>13000</v>
+      </c>
+      <c r="Z43">
+        <v>13000</v>
+      </c>
+      <c r="AA43">
+        <v>13000</v>
+      </c>
+      <c r="AB43">
+        <v>13000</v>
+      </c>
+      <c r="AC43">
+        <v>22000</v>
+      </c>
+      <c r="AD43">
+        <v>22000</v>
+      </c>
+      <c r="AE43">
+        <v>22000</v>
+      </c>
+      <c r="AF43">
+        <v>22000</v>
+      </c>
+      <c r="AG43">
+        <v>22000</v>
       </c>
     </row>
     <row r="44" spans="1:33">
-      <c r="A44" t="s">
-        <v>150</v>
+      <c r="A44" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="38">
+        <v>2500</v>
+      </c>
+      <c r="D44" s="38">
+        <v>2500</v>
+      </c>
+      <c r="E44" s="38">
+        <v>3100</v>
+      </c>
+      <c r="F44" s="38">
+        <v>4300</v>
+      </c>
+      <c r="G44">
+        <v>13000</v>
+      </c>
+      <c r="H44">
+        <v>17000</v>
+      </c>
+      <c r="I44" s="38">
+        <v>3100</v>
+      </c>
+      <c r="J44" s="38">
+        <v>3100</v>
+      </c>
+      <c r="K44" s="38">
+        <v>4300</v>
+      </c>
+      <c r="L44">
+        <v>13000</v>
+      </c>
+      <c r="M44">
+        <v>17000</v>
+      </c>
+      <c r="N44" s="38">
+        <v>4300</v>
+      </c>
+      <c r="O44" s="38">
+        <v>5400</v>
+      </c>
+      <c r="P44" s="38">
+        <v>5600</v>
+      </c>
+      <c r="Q44">
+        <v>13000</v>
+      </c>
+      <c r="R44">
+        <v>17000</v>
+      </c>
+      <c r="S44">
+        <v>13000</v>
+      </c>
+      <c r="T44">
+        <v>13000</v>
+      </c>
+      <c r="U44">
+        <v>13000</v>
+      </c>
+      <c r="V44">
+        <v>13000</v>
+      </c>
+      <c r="W44">
+        <v>13000</v>
+      </c>
+      <c r="X44">
+        <v>17000</v>
+      </c>
+      <c r="Y44">
+        <v>13000</v>
+      </c>
+      <c r="Z44">
+        <v>13000</v>
+      </c>
+      <c r="AA44">
+        <v>13000</v>
+      </c>
+      <c r="AB44">
+        <v>13000</v>
+      </c>
+      <c r="AC44">
+        <v>22000</v>
+      </c>
+      <c r="AD44">
+        <v>22000</v>
+      </c>
+      <c r="AE44">
+        <v>22000</v>
+      </c>
+      <c r="AF44">
+        <v>22000</v>
+      </c>
+      <c r="AG44">
+        <v>22000</v>
       </c>
     </row>
     <row r="45" spans="1:33">
-      <c r="A45" t="s">
-        <v>151</v>
-      </c>
+      <c r="A45" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="36"/>
       <c r="C45">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="D45">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E45">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="F45">
         <v>4300</v>
@@ -3395,10 +5698,10 @@
         <v>17000</v>
       </c>
       <c r="I45">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="J45">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K45">
         <v>4300</v>
@@ -3471,24 +5774,213 @@
       </c>
     </row>
     <row r="46" spans="1:33">
-      <c r="A46" t="s">
-        <v>152</v>
+      <c r="A46" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="36"/>
+      <c r="C46">
+        <v>2500</v>
+      </c>
+      <c r="D46">
+        <v>2500</v>
+      </c>
+      <c r="E46">
+        <v>3100</v>
+      </c>
+      <c r="F46">
+        <v>4300</v>
+      </c>
+      <c r="G46">
+        <v>13000</v>
+      </c>
+      <c r="H46">
+        <v>17000</v>
+      </c>
+      <c r="I46">
+        <v>3100</v>
+      </c>
+      <c r="J46">
+        <v>3100</v>
+      </c>
+      <c r="K46">
+        <v>4300</v>
+      </c>
+      <c r="L46">
+        <v>13000</v>
+      </c>
+      <c r="M46">
+        <v>17000</v>
+      </c>
+      <c r="N46">
+        <v>4300</v>
+      </c>
+      <c r="O46">
+        <v>5400</v>
+      </c>
+      <c r="P46">
+        <v>5600</v>
+      </c>
+      <c r="Q46">
+        <v>13000</v>
+      </c>
+      <c r="R46">
+        <v>17000</v>
+      </c>
+      <c r="S46">
+        <v>13000</v>
+      </c>
+      <c r="T46">
+        <v>13000</v>
+      </c>
+      <c r="U46">
+        <v>13000</v>
+      </c>
+      <c r="V46">
+        <v>13000</v>
+      </c>
+      <c r="W46">
+        <v>13000</v>
+      </c>
+      <c r="X46">
+        <v>17000</v>
+      </c>
+      <c r="Y46">
+        <v>13000</v>
+      </c>
+      <c r="Z46">
+        <v>13000</v>
+      </c>
+      <c r="AA46">
+        <v>13000</v>
+      </c>
+      <c r="AB46">
+        <v>13000</v>
+      </c>
+      <c r="AC46">
+        <v>22000</v>
+      </c>
+      <c r="AD46">
+        <v>22000</v>
+      </c>
+      <c r="AE46">
+        <v>22000</v>
+      </c>
+      <c r="AF46">
+        <v>22000</v>
+      </c>
+      <c r="AG46">
+        <v>22000</v>
       </c>
     </row>
     <row r="47" spans="1:33">
-      <c r="A47" t="s">
-        <v>153</v>
+      <c r="A47" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47">
+        <v>2900</v>
+      </c>
+      <c r="D47">
+        <v>2900</v>
+      </c>
+      <c r="E47">
+        <v>3400</v>
+      </c>
+      <c r="F47">
+        <v>4300</v>
+      </c>
+      <c r="G47">
+        <v>13000</v>
+      </c>
+      <c r="H47">
+        <v>17000</v>
+      </c>
+      <c r="I47">
+        <v>3400</v>
+      </c>
+      <c r="J47">
+        <v>3400</v>
+      </c>
+      <c r="K47">
+        <v>4300</v>
+      </c>
+      <c r="L47">
+        <v>13000</v>
+      </c>
+      <c r="M47">
+        <v>17000</v>
+      </c>
+      <c r="N47">
+        <v>4300</v>
+      </c>
+      <c r="O47">
+        <v>5400</v>
+      </c>
+      <c r="P47">
+        <v>5600</v>
+      </c>
+      <c r="Q47">
+        <v>13000</v>
+      </c>
+      <c r="R47">
+        <v>17000</v>
+      </c>
+      <c r="S47">
+        <v>13000</v>
+      </c>
+      <c r="T47">
+        <v>13000</v>
+      </c>
+      <c r="U47">
+        <v>13000</v>
+      </c>
+      <c r="V47">
+        <v>13000</v>
+      </c>
+      <c r="W47">
+        <v>13000</v>
+      </c>
+      <c r="X47">
+        <v>17000</v>
+      </c>
+      <c r="Y47">
+        <v>13000</v>
+      </c>
+      <c r="Z47">
+        <v>13000</v>
+      </c>
+      <c r="AA47">
+        <v>13000</v>
+      </c>
+      <c r="AB47">
+        <v>13000</v>
+      </c>
+      <c r="AC47">
+        <v>22000</v>
+      </c>
+      <c r="AD47">
+        <v>22000</v>
+      </c>
+      <c r="AE47">
+        <v>22000</v>
+      </c>
+      <c r="AF47">
+        <v>22000</v>
+      </c>
+      <c r="AG47">
+        <v>22000</v>
       </c>
     </row>
     <row r="48" spans="1:33">
-      <c r="A48" t="s">
-        <v>154</v>
-      </c>
+      <c r="A48" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="36"/>
       <c r="C48">
-        <v>2750</v>
+        <v>2900</v>
       </c>
       <c r="D48">
-        <v>2750</v>
+        <v>2900</v>
       </c>
       <c r="E48">
         <v>3400</v>
@@ -3579,9 +6071,10 @@
       </c>
     </row>
     <row r="49" spans="1:33">
-      <c r="A49" t="s">
-        <v>155</v>
-      </c>
+      <c r="A49" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="36"/>
       <c r="C49">
         <v>2750</v>
       </c>
@@ -3677,19 +6170,208 @@
       </c>
     </row>
     <row r="50" spans="1:33">
-      <c r="A50" t="s">
-        <v>156</v>
+      <c r="A50" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50">
+        <v>2000</v>
+      </c>
+      <c r="D50">
+        <v>2000</v>
+      </c>
+      <c r="E50">
+        <v>2600</v>
+      </c>
+      <c r="F50">
+        <v>3170</v>
+      </c>
+      <c r="G50">
+        <v>13000</v>
+      </c>
+      <c r="H50">
+        <v>17000</v>
+      </c>
+      <c r="I50">
+        <v>2600</v>
+      </c>
+      <c r="J50">
+        <v>2600</v>
+      </c>
+      <c r="K50">
+        <v>3170</v>
+      </c>
+      <c r="L50">
+        <v>13000</v>
+      </c>
+      <c r="M50">
+        <v>17000</v>
+      </c>
+      <c r="N50">
+        <v>3170</v>
+      </c>
+      <c r="O50">
+        <v>4700</v>
+      </c>
+      <c r="P50">
+        <v>5200</v>
+      </c>
+      <c r="Q50">
+        <v>13000</v>
+      </c>
+      <c r="R50">
+        <v>17000</v>
+      </c>
+      <c r="S50">
+        <v>13000</v>
+      </c>
+      <c r="T50">
+        <v>13000</v>
+      </c>
+      <c r="U50">
+        <v>13000</v>
+      </c>
+      <c r="V50">
+        <v>13000</v>
+      </c>
+      <c r="W50">
+        <v>13000</v>
+      </c>
+      <c r="X50">
+        <v>17000</v>
+      </c>
+      <c r="Y50">
+        <v>13000</v>
+      </c>
+      <c r="Z50">
+        <v>13000</v>
+      </c>
+      <c r="AA50">
+        <v>13000</v>
+      </c>
+      <c r="AB50">
+        <v>13000</v>
+      </c>
+      <c r="AC50">
+        <v>22000</v>
+      </c>
+      <c r="AD50">
+        <v>22000</v>
+      </c>
+      <c r="AE50">
+        <v>22000</v>
+      </c>
+      <c r="AF50">
+        <v>22000</v>
+      </c>
+      <c r="AG50">
+        <v>22000</v>
       </c>
     </row>
     <row r="51" spans="1:33">
-      <c r="A51" t="s">
-        <v>157</v>
+      <c r="A51" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51">
+        <v>2900</v>
+      </c>
+      <c r="D51">
+        <v>2900</v>
+      </c>
+      <c r="E51">
+        <v>3400</v>
+      </c>
+      <c r="F51">
+        <v>4300</v>
+      </c>
+      <c r="G51">
+        <v>13000</v>
+      </c>
+      <c r="H51">
+        <v>17000</v>
+      </c>
+      <c r="I51">
+        <v>3400</v>
+      </c>
+      <c r="J51">
+        <v>3400</v>
+      </c>
+      <c r="K51">
+        <v>4300</v>
+      </c>
+      <c r="L51">
+        <v>13000</v>
+      </c>
+      <c r="M51">
+        <v>17000</v>
+      </c>
+      <c r="N51">
+        <v>4300</v>
+      </c>
+      <c r="O51">
+        <v>5400</v>
+      </c>
+      <c r="P51">
+        <v>5600</v>
+      </c>
+      <c r="Q51">
+        <v>13000</v>
+      </c>
+      <c r="R51">
+        <v>17000</v>
+      </c>
+      <c r="S51">
+        <v>13000</v>
+      </c>
+      <c r="T51">
+        <v>13000</v>
+      </c>
+      <c r="U51">
+        <v>13000</v>
+      </c>
+      <c r="V51">
+        <v>13000</v>
+      </c>
+      <c r="W51">
+        <v>13000</v>
+      </c>
+      <c r="X51">
+        <v>17000</v>
+      </c>
+      <c r="Y51">
+        <v>13000</v>
+      </c>
+      <c r="Z51">
+        <v>13000</v>
+      </c>
+      <c r="AA51">
+        <v>13000</v>
+      </c>
+      <c r="AB51">
+        <v>13000</v>
+      </c>
+      <c r="AC51">
+        <v>22000</v>
+      </c>
+      <c r="AD51">
+        <v>22000</v>
+      </c>
+      <c r="AE51">
+        <v>22000</v>
+      </c>
+      <c r="AF51">
+        <v>22000</v>
+      </c>
+      <c r="AG51">
+        <v>22000</v>
       </c>
     </row>
     <row r="52" spans="1:33">
-      <c r="A52" t="s">
-        <v>158</v>
-      </c>
+      <c r="A52" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="36"/>
       <c r="C52">
         <v>2400</v>
       </c>
@@ -3697,10 +6379,10 @@
         <v>2400</v>
       </c>
       <c r="E52">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="F52">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G52">
         <v>13000</v>
@@ -3709,13 +6391,13 @@
         <v>17000</v>
       </c>
       <c r="I52">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="J52">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K52">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="L52">
         <v>13000</v>
@@ -3724,7 +6406,7 @@
         <v>17000</v>
       </c>
       <c r="N52">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="O52">
         <v>5400</v>
@@ -3785,20 +6467,21 @@
       </c>
     </row>
     <row r="53" spans="1:33">
-      <c r="A53" t="s">
-        <v>159</v>
-      </c>
+      <c r="A53" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="36"/>
       <c r="C53">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="D53">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E53">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="F53">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G53">
         <v>13000</v>
@@ -3807,13 +6490,13 @@
         <v>17000</v>
       </c>
       <c r="I53">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="J53">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K53">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="L53">
         <v>13000</v>
@@ -3822,13 +6505,13 @@
         <v>17000</v>
       </c>
       <c r="N53">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="O53">
         <v>5400</v>
       </c>
       <c r="P53">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="Q53">
         <v>13000</v>
@@ -3883,25 +6566,120 @@
       </c>
     </row>
     <row r="54" spans="1:33">
-      <c r="A54" t="s">
-        <v>160</v>
+      <c r="A54" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54">
+        <v>2600</v>
+      </c>
+      <c r="D54">
+        <v>2600</v>
+      </c>
+      <c r="E54">
+        <v>3200</v>
+      </c>
+      <c r="F54">
+        <v>4200</v>
+      </c>
+      <c r="G54">
+        <v>13000</v>
+      </c>
+      <c r="H54">
+        <v>17000</v>
+      </c>
+      <c r="I54">
+        <v>3200</v>
+      </c>
+      <c r="J54">
+        <v>3200</v>
+      </c>
+      <c r="K54">
+        <v>4200</v>
+      </c>
+      <c r="L54">
+        <v>13000</v>
+      </c>
+      <c r="M54">
+        <v>17000</v>
+      </c>
+      <c r="N54">
+        <v>4200</v>
+      </c>
+      <c r="O54">
+        <v>5400</v>
+      </c>
+      <c r="P54">
+        <v>5800</v>
+      </c>
+      <c r="Q54">
+        <v>13000</v>
+      </c>
+      <c r="R54">
+        <v>17000</v>
+      </c>
+      <c r="S54">
+        <v>13000</v>
+      </c>
+      <c r="T54">
+        <v>13000</v>
+      </c>
+      <c r="U54">
+        <v>13000</v>
+      </c>
+      <c r="V54">
+        <v>13000</v>
+      </c>
+      <c r="W54">
+        <v>13000</v>
+      </c>
+      <c r="X54">
+        <v>17000</v>
+      </c>
+      <c r="Y54">
+        <v>13000</v>
+      </c>
+      <c r="Z54">
+        <v>13000</v>
+      </c>
+      <c r="AA54">
+        <v>13000</v>
+      </c>
+      <c r="AB54">
+        <v>13000</v>
+      </c>
+      <c r="AC54">
+        <v>22000</v>
+      </c>
+      <c r="AD54">
+        <v>22000</v>
+      </c>
+      <c r="AE54">
+        <v>22000</v>
+      </c>
+      <c r="AF54">
+        <v>22000</v>
+      </c>
+      <c r="AG54">
+        <v>22000</v>
       </c>
     </row>
     <row r="55" spans="1:33">
-      <c r="A55" t="s">
-        <v>161</v>
-      </c>
+      <c r="A55" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="36"/>
       <c r="C55">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="D55">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="E55">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="F55">
-        <v>4200</v>
+        <v>3300</v>
       </c>
       <c r="G55">
         <v>13000</v>
@@ -3910,13 +6688,13 @@
         <v>17000</v>
       </c>
       <c r="I55">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="J55">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K55">
-        <v>4200</v>
+        <v>3300</v>
       </c>
       <c r="L55">
         <v>13000</v>
@@ -3925,13 +6703,13 @@
         <v>17000</v>
       </c>
       <c r="N55">
-        <v>4200</v>
+        <v>3300</v>
       </c>
       <c r="O55">
+        <v>5000</v>
+      </c>
+      <c r="P55">
         <v>5400</v>
-      </c>
-      <c r="P55">
-        <v>5800</v>
       </c>
       <c r="Q55">
         <v>13000</v>
@@ -3986,29 +6764,406 @@
       </c>
     </row>
     <row r="56" spans="1:33">
-      <c r="A56" t="s">
-        <v>162</v>
+      <c r="A56" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56">
+        <v>2600</v>
+      </c>
+      <c r="D56">
+        <v>2600</v>
+      </c>
+      <c r="E56">
+        <v>3200</v>
+      </c>
+      <c r="F56">
+        <v>4200</v>
+      </c>
+      <c r="G56">
+        <v>13000</v>
+      </c>
+      <c r="H56">
+        <v>17000</v>
+      </c>
+      <c r="I56">
+        <v>3200</v>
+      </c>
+      <c r="J56">
+        <v>3200</v>
+      </c>
+      <c r="K56">
+        <v>4200</v>
+      </c>
+      <c r="L56">
+        <v>13000</v>
+      </c>
+      <c r="M56">
+        <v>17000</v>
+      </c>
+      <c r="N56">
+        <v>4200</v>
+      </c>
+      <c r="O56">
+        <v>5400</v>
+      </c>
+      <c r="P56">
+        <v>5800</v>
+      </c>
+      <c r="Q56">
+        <v>13000</v>
+      </c>
+      <c r="R56">
+        <v>17000</v>
+      </c>
+      <c r="S56">
+        <v>13000</v>
+      </c>
+      <c r="T56">
+        <v>13000</v>
+      </c>
+      <c r="U56">
+        <v>13000</v>
+      </c>
+      <c r="V56">
+        <v>13000</v>
+      </c>
+      <c r="W56">
+        <v>13000</v>
+      </c>
+      <c r="X56">
+        <v>17000</v>
+      </c>
+      <c r="Y56">
+        <v>13000</v>
+      </c>
+      <c r="Z56">
+        <v>13000</v>
+      </c>
+      <c r="AA56">
+        <v>13000</v>
+      </c>
+      <c r="AB56">
+        <v>13000</v>
+      </c>
+      <c r="AC56">
+        <v>22000</v>
+      </c>
+      <c r="AD56">
+        <v>22000</v>
+      </c>
+      <c r="AE56">
+        <v>22000</v>
+      </c>
+      <c r="AF56">
+        <v>22000</v>
+      </c>
+      <c r="AG56">
+        <v>22000</v>
       </c>
     </row>
     <row r="57" spans="1:33">
-      <c r="A57" t="s">
-        <v>163</v>
+      <c r="A57" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57">
+        <v>1950</v>
+      </c>
+      <c r="D57">
+        <v>1950</v>
+      </c>
+      <c r="E57">
+        <v>2600</v>
+      </c>
+      <c r="F57">
+        <v>3600</v>
+      </c>
+      <c r="G57">
+        <v>13000</v>
+      </c>
+      <c r="H57">
+        <v>17000</v>
+      </c>
+      <c r="I57">
+        <v>2600</v>
+      </c>
+      <c r="J57">
+        <v>2600</v>
+      </c>
+      <c r="K57">
+        <v>3600</v>
+      </c>
+      <c r="L57">
+        <v>13000</v>
+      </c>
+      <c r="M57">
+        <v>17000</v>
+      </c>
+      <c r="N57">
+        <v>3600</v>
+      </c>
+      <c r="O57">
+        <v>4700</v>
+      </c>
+      <c r="P57">
+        <v>5100</v>
+      </c>
+      <c r="Q57">
+        <v>13000</v>
+      </c>
+      <c r="R57">
+        <v>17000</v>
+      </c>
+      <c r="S57">
+        <v>13000</v>
+      </c>
+      <c r="T57">
+        <v>13000</v>
+      </c>
+      <c r="U57">
+        <v>13000</v>
+      </c>
+      <c r="V57">
+        <v>13000</v>
+      </c>
+      <c r="W57">
+        <v>13000</v>
+      </c>
+      <c r="X57">
+        <v>17000</v>
+      </c>
+      <c r="Y57">
+        <v>13000</v>
+      </c>
+      <c r="Z57">
+        <v>13000</v>
+      </c>
+      <c r="AA57">
+        <v>13000</v>
+      </c>
+      <c r="AB57">
+        <v>13000</v>
+      </c>
+      <c r="AC57">
+        <v>22000</v>
+      </c>
+      <c r="AD57">
+        <v>22000</v>
+      </c>
+      <c r="AE57">
+        <v>22000</v>
+      </c>
+      <c r="AF57">
+        <v>22000</v>
+      </c>
+      <c r="AG57">
+        <v>22000</v>
       </c>
     </row>
     <row r="58" spans="1:33">
-      <c r="A58" t="s">
-        <v>164</v>
+      <c r="A58" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58">
+        <v>2700</v>
+      </c>
+      <c r="D58">
+        <v>2700</v>
+      </c>
+      <c r="E58">
+        <v>2900</v>
+      </c>
+      <c r="F58">
+        <v>4300</v>
+      </c>
+      <c r="G58">
+        <v>13000</v>
+      </c>
+      <c r="H58">
+        <v>17000</v>
+      </c>
+      <c r="I58">
+        <v>2900</v>
+      </c>
+      <c r="J58">
+        <v>2900</v>
+      </c>
+      <c r="K58">
+        <v>4300</v>
+      </c>
+      <c r="L58">
+        <v>13000</v>
+      </c>
+      <c r="M58">
+        <v>17000</v>
+      </c>
+      <c r="N58">
+        <v>4300</v>
+      </c>
+      <c r="O58">
+        <v>5400</v>
+      </c>
+      <c r="P58">
+        <v>5600</v>
+      </c>
+      <c r="Q58">
+        <v>13000</v>
+      </c>
+      <c r="R58">
+        <v>17000</v>
+      </c>
+      <c r="S58">
+        <v>13000</v>
+      </c>
+      <c r="T58">
+        <v>13000</v>
+      </c>
+      <c r="U58">
+        <v>13000</v>
+      </c>
+      <c r="V58">
+        <v>13000</v>
+      </c>
+      <c r="W58">
+        <v>13000</v>
+      </c>
+      <c r="X58">
+        <v>17000</v>
+      </c>
+      <c r="Y58">
+        <v>13000</v>
+      </c>
+      <c r="Z58">
+        <v>13000</v>
+      </c>
+      <c r="AA58">
+        <v>13000</v>
+      </c>
+      <c r="AB58">
+        <v>13000</v>
+      </c>
+      <c r="AC58">
+        <v>22000</v>
+      </c>
+      <c r="AD58">
+        <v>22000</v>
+      </c>
+      <c r="AE58">
+        <v>22000</v>
+      </c>
+      <c r="AF58">
+        <v>22000</v>
+      </c>
+      <c r="AG58">
+        <v>22000</v>
       </c>
     </row>
     <row r="59" spans="1:33">
-      <c r="A59" t="s">
-        <v>165</v>
+      <c r="A59" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59">
+        <v>1950</v>
+      </c>
+      <c r="D59">
+        <v>1950</v>
+      </c>
+      <c r="E59">
+        <v>2600</v>
+      </c>
+      <c r="F59">
+        <v>3600</v>
+      </c>
+      <c r="G59">
+        <v>13000</v>
+      </c>
+      <c r="H59">
+        <v>17000</v>
+      </c>
+      <c r="I59">
+        <v>2600</v>
+      </c>
+      <c r="J59">
+        <v>2600</v>
+      </c>
+      <c r="K59">
+        <v>3600</v>
+      </c>
+      <c r="L59">
+        <v>13000</v>
+      </c>
+      <c r="M59">
+        <v>17000</v>
+      </c>
+      <c r="N59">
+        <v>3600</v>
+      </c>
+      <c r="O59">
+        <v>4700</v>
+      </c>
+      <c r="P59">
+        <v>5100</v>
+      </c>
+      <c r="Q59">
+        <v>13000</v>
+      </c>
+      <c r="R59">
+        <v>17000</v>
+      </c>
+      <c r="S59">
+        <v>13000</v>
+      </c>
+      <c r="T59">
+        <v>13000</v>
+      </c>
+      <c r="U59">
+        <v>13000</v>
+      </c>
+      <c r="V59">
+        <v>13000</v>
+      </c>
+      <c r="W59">
+        <v>13000</v>
+      </c>
+      <c r="X59">
+        <v>17000</v>
+      </c>
+      <c r="Y59">
+        <v>13000</v>
+      </c>
+      <c r="Z59">
+        <v>13000</v>
+      </c>
+      <c r="AA59">
+        <v>13000</v>
+      </c>
+      <c r="AB59">
+        <v>13000</v>
+      </c>
+      <c r="AC59">
+        <v>22000</v>
+      </c>
+      <c r="AD59">
+        <v>22000</v>
+      </c>
+      <c r="AE59">
+        <v>22000</v>
+      </c>
+      <c r="AF59">
+        <v>22000</v>
+      </c>
+      <c r="AG59">
+        <v>22000</v>
       </c>
     </row>
     <row r="60" spans="1:33">
-      <c r="A60" t="s">
-        <v>166</v>
-      </c>
+      <c r="A60" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="36"/>
       <c r="C60">
         <v>2500</v>
       </c>
@@ -4016,10 +7171,10 @@
         <v>2500</v>
       </c>
       <c r="E60">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F60">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G60">
         <v>13000</v>
@@ -4028,13 +7183,13 @@
         <v>17000</v>
       </c>
       <c r="I60">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J60">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K60">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="L60">
         <v>13000</v>
@@ -4043,10 +7198,10 @@
         <v>17000</v>
       </c>
       <c r="N60">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="O60">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="P60">
         <v>5600</v>
@@ -4104,40 +7259,417 @@
       </c>
     </row>
     <row r="61" spans="1:33">
-      <c r="A61" t="s">
-        <v>167</v>
+      <c r="A61" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61">
+        <v>2500</v>
+      </c>
+      <c r="D61">
+        <v>2500</v>
+      </c>
+      <c r="E61">
+        <v>3300</v>
+      </c>
+      <c r="F61">
+        <v>4200</v>
+      </c>
+      <c r="G61">
+        <v>13000</v>
+      </c>
+      <c r="H61">
+        <v>17000</v>
+      </c>
+      <c r="I61">
+        <v>3300</v>
+      </c>
+      <c r="J61">
+        <v>3300</v>
+      </c>
+      <c r="K61">
+        <v>4200</v>
+      </c>
+      <c r="L61">
+        <v>13000</v>
+      </c>
+      <c r="M61">
+        <v>17000</v>
+      </c>
+      <c r="N61">
+        <v>4200</v>
+      </c>
+      <c r="O61">
+        <v>5400</v>
+      </c>
+      <c r="P61">
+        <v>5600</v>
+      </c>
+      <c r="Q61">
+        <v>13000</v>
+      </c>
+      <c r="R61">
+        <v>17000</v>
+      </c>
+      <c r="S61">
+        <v>13000</v>
+      </c>
+      <c r="T61">
+        <v>13000</v>
+      </c>
+      <c r="U61">
+        <v>13000</v>
+      </c>
+      <c r="V61">
+        <v>13000</v>
+      </c>
+      <c r="W61">
+        <v>13000</v>
+      </c>
+      <c r="X61">
+        <v>17000</v>
+      </c>
+      <c r="Y61">
+        <v>13000</v>
+      </c>
+      <c r="Z61">
+        <v>13000</v>
+      </c>
+      <c r="AA61">
+        <v>13000</v>
+      </c>
+      <c r="AB61">
+        <v>13000</v>
+      </c>
+      <c r="AC61">
+        <v>22000</v>
+      </c>
+      <c r="AD61">
+        <v>22000</v>
+      </c>
+      <c r="AE61">
+        <v>22000</v>
+      </c>
+      <c r="AF61">
+        <v>22000</v>
+      </c>
+      <c r="AG61">
+        <v>22000</v>
       </c>
     </row>
     <row r="62" spans="1:33">
-      <c r="A62" t="s">
-        <v>168</v>
+      <c r="A62" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62">
+        <v>2900</v>
+      </c>
+      <c r="D62">
+        <v>2900</v>
+      </c>
+      <c r="E62">
+        <v>3400</v>
+      </c>
+      <c r="F62">
+        <v>4300</v>
+      </c>
+      <c r="G62">
+        <v>13000</v>
+      </c>
+      <c r="H62">
+        <v>17000</v>
+      </c>
+      <c r="I62">
+        <v>3400</v>
+      </c>
+      <c r="J62">
+        <v>3400</v>
+      </c>
+      <c r="K62">
+        <v>4300</v>
+      </c>
+      <c r="L62">
+        <v>13000</v>
+      </c>
+      <c r="M62">
+        <v>17000</v>
+      </c>
+      <c r="N62">
+        <v>4300</v>
+      </c>
+      <c r="O62">
+        <v>5400</v>
+      </c>
+      <c r="P62">
+        <v>5600</v>
+      </c>
+      <c r="Q62">
+        <v>13000</v>
+      </c>
+      <c r="R62">
+        <v>17000</v>
+      </c>
+      <c r="S62">
+        <v>13000</v>
+      </c>
+      <c r="T62">
+        <v>13000</v>
+      </c>
+      <c r="U62">
+        <v>13000</v>
+      </c>
+      <c r="V62">
+        <v>13000</v>
+      </c>
+      <c r="W62">
+        <v>13000</v>
+      </c>
+      <c r="X62">
+        <v>17000</v>
+      </c>
+      <c r="Y62">
+        <v>13000</v>
+      </c>
+      <c r="Z62">
+        <v>13000</v>
+      </c>
+      <c r="AA62">
+        <v>13000</v>
+      </c>
+      <c r="AB62">
+        <v>13000</v>
+      </c>
+      <c r="AC62">
+        <v>22000</v>
+      </c>
+      <c r="AD62">
+        <v>22000</v>
+      </c>
+      <c r="AE62">
+        <v>22000</v>
+      </c>
+      <c r="AF62">
+        <v>22000</v>
+      </c>
+      <c r="AG62">
+        <v>22000</v>
       </c>
     </row>
     <row r="63" spans="1:33">
-      <c r="A63" t="s">
-        <v>169</v>
+      <c r="A63" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63">
+        <v>2900</v>
+      </c>
+      <c r="D63">
+        <v>2900</v>
+      </c>
+      <c r="E63">
+        <v>3400</v>
+      </c>
+      <c r="F63">
+        <v>4300</v>
+      </c>
+      <c r="G63">
+        <v>13000</v>
+      </c>
+      <c r="H63">
+        <v>17000</v>
+      </c>
+      <c r="I63">
+        <v>3400</v>
+      </c>
+      <c r="J63">
+        <v>3400</v>
+      </c>
+      <c r="K63">
+        <v>4300</v>
+      </c>
+      <c r="L63">
+        <v>13000</v>
+      </c>
+      <c r="M63">
+        <v>17000</v>
+      </c>
+      <c r="N63">
+        <v>4300</v>
+      </c>
+      <c r="O63">
+        <v>5400</v>
+      </c>
+      <c r="P63">
+        <v>5600</v>
+      </c>
+      <c r="Q63">
+        <v>13000</v>
+      </c>
+      <c r="R63">
+        <v>17000</v>
+      </c>
+      <c r="S63">
+        <v>13000</v>
+      </c>
+      <c r="T63">
+        <v>13000</v>
+      </c>
+      <c r="U63">
+        <v>13000</v>
+      </c>
+      <c r="V63">
+        <v>13000</v>
+      </c>
+      <c r="W63">
+        <v>13000</v>
+      </c>
+      <c r="X63">
+        <v>17000</v>
+      </c>
+      <c r="Y63">
+        <v>13000</v>
+      </c>
+      <c r="Z63">
+        <v>13000</v>
+      </c>
+      <c r="AA63">
+        <v>13000</v>
+      </c>
+      <c r="AB63">
+        <v>13000</v>
+      </c>
+      <c r="AC63">
+        <v>22000</v>
+      </c>
+      <c r="AD63">
+        <v>22000</v>
+      </c>
+      <c r="AE63">
+        <v>22000</v>
+      </c>
+      <c r="AF63">
+        <v>22000</v>
+      </c>
+      <c r="AG63">
+        <v>22000</v>
       </c>
     </row>
     <row r="64" spans="1:33">
-      <c r="A64" t="s">
-        <v>170</v>
+      <c r="A64" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="37">
+        <v>2200</v>
+      </c>
+      <c r="D64" s="37">
+        <v>2300</v>
+      </c>
+      <c r="E64" s="37">
+        <v>2900</v>
+      </c>
+      <c r="F64" s="37">
+        <v>3800</v>
+      </c>
+      <c r="G64">
+        <v>13000</v>
+      </c>
+      <c r="H64">
+        <v>17000</v>
+      </c>
+      <c r="I64" s="37">
+        <v>2900</v>
+      </c>
+      <c r="J64" s="37">
+        <v>2900</v>
+      </c>
+      <c r="K64" s="37">
+        <v>3800</v>
+      </c>
+      <c r="L64">
+        <v>13000</v>
+      </c>
+      <c r="M64">
+        <v>17000</v>
+      </c>
+      <c r="N64" s="37">
+        <v>3800</v>
+      </c>
+      <c r="O64" s="37">
+        <v>5000</v>
+      </c>
+      <c r="P64" s="37">
+        <v>5200</v>
+      </c>
+      <c r="Q64">
+        <v>13000</v>
+      </c>
+      <c r="R64">
+        <v>17000</v>
+      </c>
+      <c r="S64">
+        <v>13000</v>
+      </c>
+      <c r="T64">
+        <v>13000</v>
+      </c>
+      <c r="U64">
+        <v>13000</v>
+      </c>
+      <c r="V64">
+        <v>13000</v>
+      </c>
+      <c r="W64">
+        <v>13000</v>
+      </c>
+      <c r="X64">
+        <v>17000</v>
+      </c>
+      <c r="Y64">
+        <v>13000</v>
+      </c>
+      <c r="Z64">
+        <v>13000</v>
+      </c>
+      <c r="AA64">
+        <v>13000</v>
+      </c>
+      <c r="AB64">
+        <v>13000</v>
+      </c>
+      <c r="AC64">
+        <v>22000</v>
+      </c>
+      <c r="AD64">
+        <v>22000</v>
+      </c>
+      <c r="AE64">
+        <v>22000</v>
+      </c>
+      <c r="AF64">
+        <v>22000</v>
+      </c>
+      <c r="AG64">
+        <v>22000</v>
       </c>
     </row>
     <row r="65" spans="1:33">
-      <c r="A65" t="s">
-        <v>171</v>
-      </c>
+      <c r="A65" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="36"/>
       <c r="C65">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="D65">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="E65">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F65">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G65">
         <v>13000</v>
@@ -4146,13 +7678,13 @@
         <v>17000</v>
       </c>
       <c r="I65">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="J65">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K65">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="L65">
         <v>13000</v>
@@ -4161,7 +7693,7 @@
         <v>17000</v>
       </c>
       <c r="N65">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="O65">
         <v>5400</v>
@@ -4222,22 +7754,117 @@
       </c>
     </row>
     <row r="66" spans="1:33">
-      <c r="A66" t="s">
-        <v>172</v>
+      <c r="A66" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="36"/>
+      <c r="C66">
+        <v>2400</v>
+      </c>
+      <c r="D66">
+        <v>2400</v>
+      </c>
+      <c r="E66">
+        <v>3000</v>
+      </c>
+      <c r="F66">
+        <v>4100</v>
+      </c>
+      <c r="G66">
+        <v>13000</v>
+      </c>
+      <c r="H66">
+        <v>17000</v>
+      </c>
+      <c r="I66">
+        <v>3000</v>
+      </c>
+      <c r="J66">
+        <v>3000</v>
+      </c>
+      <c r="K66">
+        <v>4100</v>
+      </c>
+      <c r="L66">
+        <v>13000</v>
+      </c>
+      <c r="M66">
+        <v>17000</v>
+      </c>
+      <c r="N66">
+        <v>4100</v>
+      </c>
+      <c r="O66">
+        <v>5400</v>
+      </c>
+      <c r="P66">
+        <v>5600</v>
+      </c>
+      <c r="Q66">
+        <v>13000</v>
+      </c>
+      <c r="R66">
+        <v>17000</v>
+      </c>
+      <c r="S66">
+        <v>13000</v>
+      </c>
+      <c r="T66">
+        <v>13000</v>
+      </c>
+      <c r="U66">
+        <v>13000</v>
+      </c>
+      <c r="V66">
+        <v>13000</v>
+      </c>
+      <c r="W66">
+        <v>13000</v>
+      </c>
+      <c r="X66">
+        <v>17000</v>
+      </c>
+      <c r="Y66">
+        <v>13000</v>
+      </c>
+      <c r="Z66">
+        <v>13000</v>
+      </c>
+      <c r="AA66">
+        <v>13000</v>
+      </c>
+      <c r="AB66">
+        <v>13000</v>
+      </c>
+      <c r="AC66">
+        <v>22000</v>
+      </c>
+      <c r="AD66">
+        <v>22000</v>
+      </c>
+      <c r="AE66">
+        <v>22000</v>
+      </c>
+      <c r="AF66">
+        <v>22000</v>
+      </c>
+      <c r="AG66">
+        <v>22000</v>
       </c>
     </row>
     <row r="67" spans="1:33">
-      <c r="A67" t="s">
-        <v>173</v>
-      </c>
+      <c r="A67" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="36"/>
       <c r="C67">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="D67">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E67">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="F67">
         <v>3700</v>
@@ -4249,10 +7876,10 @@
         <v>17000</v>
       </c>
       <c r="I67">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="J67">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K67">
         <v>3700</v>
@@ -4266,12 +7893,6 @@
       <c r="N67">
         <v>3700</v>
       </c>
-      <c r="O67">
-        <v>5400</v>
-      </c>
-      <c r="P67">
-        <v>5800</v>
-      </c>
       <c r="Q67">
         <v>13000</v>
       </c>
@@ -4325,30 +7946,219 @@
       </c>
     </row>
     <row r="68" spans="1:33">
-      <c r="A68" t="s">
-        <v>174</v>
+      <c r="A68" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68">
+        <v>2500</v>
+      </c>
+      <c r="D68">
+        <v>2500</v>
+      </c>
+      <c r="E68">
+        <v>3000</v>
+      </c>
+      <c r="F68">
+        <v>3700</v>
+      </c>
+      <c r="G68">
+        <v>13000</v>
+      </c>
+      <c r="H68">
+        <v>17000</v>
+      </c>
+      <c r="I68">
+        <v>3000</v>
+      </c>
+      <c r="J68">
+        <v>3000</v>
+      </c>
+      <c r="K68">
+        <v>3700</v>
+      </c>
+      <c r="L68">
+        <v>13000</v>
+      </c>
+      <c r="M68">
+        <v>17000</v>
+      </c>
+      <c r="N68">
+        <v>3700</v>
+      </c>
+      <c r="O68">
+        <v>5400</v>
+      </c>
+      <c r="P68">
+        <v>5800</v>
+      </c>
+      <c r="Q68">
+        <v>13000</v>
+      </c>
+      <c r="R68">
+        <v>17000</v>
+      </c>
+      <c r="S68">
+        <v>13000</v>
+      </c>
+      <c r="T68">
+        <v>13000</v>
+      </c>
+      <c r="U68">
+        <v>13000</v>
+      </c>
+      <c r="V68">
+        <v>13000</v>
+      </c>
+      <c r="W68">
+        <v>13000</v>
+      </c>
+      <c r="X68">
+        <v>17000</v>
+      </c>
+      <c r="Y68">
+        <v>13000</v>
+      </c>
+      <c r="Z68">
+        <v>13000</v>
+      </c>
+      <c r="AA68">
+        <v>13000</v>
+      </c>
+      <c r="AB68">
+        <v>13000</v>
+      </c>
+      <c r="AC68">
+        <v>22000</v>
+      </c>
+      <c r="AD68">
+        <v>22000</v>
+      </c>
+      <c r="AE68">
+        <v>22000</v>
+      </c>
+      <c r="AF68">
+        <v>22000</v>
+      </c>
+      <c r="AG68">
+        <v>22000</v>
       </c>
     </row>
     <row r="69" spans="1:33">
-      <c r="A69" t="s">
-        <v>175</v>
+      <c r="A69" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69">
+        <v>2100</v>
+      </c>
+      <c r="D69">
+        <v>2100</v>
+      </c>
+      <c r="E69">
+        <v>3000</v>
+      </c>
+      <c r="F69">
+        <v>3500</v>
+      </c>
+      <c r="G69">
+        <v>13000</v>
+      </c>
+      <c r="H69">
+        <v>17000</v>
+      </c>
+      <c r="I69">
+        <v>3000</v>
+      </c>
+      <c r="J69">
+        <v>3000</v>
+      </c>
+      <c r="K69">
+        <v>3500</v>
+      </c>
+      <c r="L69">
+        <v>13000</v>
+      </c>
+      <c r="M69">
+        <v>17000</v>
+      </c>
+      <c r="N69">
+        <v>3500</v>
+      </c>
+      <c r="O69">
+        <v>5200</v>
+      </c>
+      <c r="P69">
+        <v>5700</v>
+      </c>
+      <c r="Q69">
+        <v>13000</v>
+      </c>
+      <c r="R69">
+        <v>17000</v>
+      </c>
+      <c r="S69">
+        <v>13000</v>
+      </c>
+      <c r="T69">
+        <v>13000</v>
+      </c>
+      <c r="U69">
+        <v>13000</v>
+      </c>
+      <c r="V69">
+        <v>13000</v>
+      </c>
+      <c r="W69">
+        <v>13000</v>
+      </c>
+      <c r="X69">
+        <v>17000</v>
+      </c>
+      <c r="Y69">
+        <v>13000</v>
+      </c>
+      <c r="Z69">
+        <v>13000</v>
+      </c>
+      <c r="AA69">
+        <v>13000</v>
+      </c>
+      <c r="AB69">
+        <v>13000</v>
+      </c>
+      <c r="AC69">
+        <v>22000</v>
+      </c>
+      <c r="AD69">
+        <v>22000</v>
+      </c>
+      <c r="AE69">
+        <v>22000</v>
+      </c>
+      <c r="AF69">
+        <v>22000</v>
+      </c>
+      <c r="AG69">
+        <v>22000</v>
       </c>
     </row>
     <row r="70" spans="1:33">
-      <c r="A70" t="s">
-        <v>176</v>
-      </c>
+      <c r="A70" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="36"/>
       <c r="C70">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="D70">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="E70">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="F70">
-        <v>4800</v>
+        <v>3700</v>
       </c>
       <c r="G70">
         <v>13000</v>
@@ -4357,13 +8167,13 @@
         <v>17000</v>
       </c>
       <c r="I70">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="J70">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="K70">
-        <v>4800</v>
+        <v>3700</v>
       </c>
       <c r="L70">
         <v>13000</v>
@@ -4372,13 +8182,13 @@
         <v>17000</v>
       </c>
       <c r="N70">
-        <v>4800</v>
+        <v>3700</v>
       </c>
       <c r="O70">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="P70">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="Q70">
         <v>13000</v>
@@ -4433,45 +8243,516 @@
       </c>
     </row>
     <row r="71" spans="1:33">
-      <c r="A71" t="s">
-        <v>177</v>
+      <c r="A71" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71">
+        <v>3000</v>
+      </c>
+      <c r="D71">
+        <v>3000</v>
+      </c>
+      <c r="E71">
+        <v>3500</v>
+      </c>
+      <c r="F71">
+        <v>4800</v>
+      </c>
+      <c r="G71">
+        <v>13000</v>
+      </c>
+      <c r="H71">
+        <v>17000</v>
+      </c>
+      <c r="I71">
+        <v>3500</v>
+      </c>
+      <c r="J71">
+        <v>3500</v>
+      </c>
+      <c r="K71">
+        <v>4800</v>
+      </c>
+      <c r="L71">
+        <v>13000</v>
+      </c>
+      <c r="M71">
+        <v>17000</v>
+      </c>
+      <c r="N71">
+        <v>4800</v>
+      </c>
+      <c r="O71">
+        <v>5600</v>
+      </c>
+      <c r="P71">
+        <v>5800</v>
+      </c>
+      <c r="Q71">
+        <v>13000</v>
+      </c>
+      <c r="R71">
+        <v>17000</v>
+      </c>
+      <c r="S71">
+        <v>13000</v>
+      </c>
+      <c r="T71">
+        <v>13000</v>
+      </c>
+      <c r="U71">
+        <v>13000</v>
+      </c>
+      <c r="V71">
+        <v>13000</v>
+      </c>
+      <c r="W71">
+        <v>13000</v>
+      </c>
+      <c r="X71">
+        <v>17000</v>
+      </c>
+      <c r="Y71">
+        <v>13000</v>
+      </c>
+      <c r="Z71">
+        <v>13000</v>
+      </c>
+      <c r="AA71">
+        <v>13000</v>
+      </c>
+      <c r="AB71">
+        <v>13000</v>
+      </c>
+      <c r="AC71">
+        <v>22000</v>
+      </c>
+      <c r="AD71">
+        <v>22000</v>
+      </c>
+      <c r="AE71">
+        <v>22000</v>
+      </c>
+      <c r="AF71">
+        <v>22000</v>
+      </c>
+      <c r="AG71">
+        <v>22000</v>
       </c>
     </row>
     <row r="72" spans="1:33">
-      <c r="A72" t="s">
-        <v>178</v>
+      <c r="A72" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37">
+        <v>3000</v>
+      </c>
+      <c r="D72" s="37">
+        <v>3000</v>
+      </c>
+      <c r="E72" s="37">
+        <v>3500</v>
+      </c>
+      <c r="F72" s="37">
+        <v>4800</v>
+      </c>
+      <c r="G72">
+        <v>13000</v>
+      </c>
+      <c r="H72">
+        <v>17000</v>
+      </c>
+      <c r="I72" s="37">
+        <v>3500</v>
+      </c>
+      <c r="J72" s="37">
+        <v>3500</v>
+      </c>
+      <c r="K72" s="37">
+        <v>4800</v>
+      </c>
+      <c r="L72">
+        <v>13000</v>
+      </c>
+      <c r="M72">
+        <v>17000</v>
+      </c>
+      <c r="N72" s="37">
+        <v>4800</v>
+      </c>
+      <c r="O72" s="37">
+        <v>5600</v>
+      </c>
+      <c r="P72" s="37">
+        <v>5800</v>
+      </c>
+      <c r="Q72">
+        <v>13000</v>
+      </c>
+      <c r="R72">
+        <v>17000</v>
+      </c>
+      <c r="S72">
+        <v>13000</v>
+      </c>
+      <c r="T72">
+        <v>13000</v>
+      </c>
+      <c r="U72">
+        <v>13000</v>
+      </c>
+      <c r="V72">
+        <v>13000</v>
+      </c>
+      <c r="W72">
+        <v>13000</v>
+      </c>
+      <c r="X72">
+        <v>17000</v>
+      </c>
+      <c r="Y72">
+        <v>13000</v>
+      </c>
+      <c r="Z72">
+        <v>13000</v>
+      </c>
+      <c r="AA72">
+        <v>13000</v>
+      </c>
+      <c r="AB72">
+        <v>13000</v>
+      </c>
+      <c r="AC72">
+        <v>22000</v>
+      </c>
+      <c r="AD72">
+        <v>22000</v>
+      </c>
+      <c r="AE72">
+        <v>22000</v>
+      </c>
+      <c r="AF72">
+        <v>22000</v>
+      </c>
+      <c r="AG72">
+        <v>22000</v>
       </c>
     </row>
     <row r="73" spans="1:33">
-      <c r="A73" t="s">
-        <v>179</v>
+      <c r="A73" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="37">
+        <v>2900</v>
+      </c>
+      <c r="D73" s="37">
+        <v>2900</v>
+      </c>
+      <c r="E73" s="37">
+        <v>3400</v>
+      </c>
+      <c r="F73" s="37">
+        <v>4300</v>
+      </c>
+      <c r="G73">
+        <v>13000</v>
+      </c>
+      <c r="H73">
+        <v>17000</v>
+      </c>
+      <c r="I73" s="37">
+        <v>3400</v>
+      </c>
+      <c r="J73" s="37">
+        <v>3400</v>
+      </c>
+      <c r="K73" s="37">
+        <v>4300</v>
+      </c>
+      <c r="L73">
+        <v>13000</v>
+      </c>
+      <c r="M73">
+        <v>17000</v>
+      </c>
+      <c r="N73" s="37">
+        <v>4300</v>
+      </c>
+      <c r="O73" s="37">
+        <v>5400</v>
+      </c>
+      <c r="P73" s="37">
+        <v>5600</v>
+      </c>
+      <c r="Q73">
+        <v>13000</v>
+      </c>
+      <c r="R73">
+        <v>17000</v>
+      </c>
+      <c r="S73">
+        <v>13000</v>
+      </c>
+      <c r="T73">
+        <v>13000</v>
+      </c>
+      <c r="U73">
+        <v>13000</v>
+      </c>
+      <c r="V73">
+        <v>13000</v>
+      </c>
+      <c r="W73">
+        <v>13000</v>
+      </c>
+      <c r="X73">
+        <v>17000</v>
+      </c>
+      <c r="Y73">
+        <v>13000</v>
+      </c>
+      <c r="Z73">
+        <v>13000</v>
+      </c>
+      <c r="AA73">
+        <v>13000</v>
+      </c>
+      <c r="AB73">
+        <v>13000</v>
+      </c>
+      <c r="AC73">
+        <v>22000</v>
+      </c>
+      <c r="AD73">
+        <v>22000</v>
+      </c>
+      <c r="AE73">
+        <v>22000</v>
+      </c>
+      <c r="AF73">
+        <v>22000</v>
+      </c>
+      <c r="AG73">
+        <v>22000</v>
       </c>
     </row>
     <row r="74" spans="1:33">
-      <c r="A74" t="s">
-        <v>180</v>
+      <c r="A74" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37">
+        <v>2900</v>
+      </c>
+      <c r="D74" s="37">
+        <v>2900</v>
+      </c>
+      <c r="E74" s="37">
+        <v>3400</v>
+      </c>
+      <c r="F74" s="37">
+        <v>4300</v>
+      </c>
+      <c r="G74">
+        <v>13000</v>
+      </c>
+      <c r="H74">
+        <v>17000</v>
+      </c>
+      <c r="I74" s="37">
+        <v>3400</v>
+      </c>
+      <c r="J74" s="37">
+        <v>3400</v>
+      </c>
+      <c r="K74" s="37">
+        <v>4300</v>
+      </c>
+      <c r="L74">
+        <v>13000</v>
+      </c>
+      <c r="M74">
+        <v>17000</v>
+      </c>
+      <c r="N74" s="37">
+        <v>4300</v>
+      </c>
+      <c r="O74" s="37">
+        <v>5400</v>
+      </c>
+      <c r="P74" s="37">
+        <v>5600</v>
+      </c>
+      <c r="Q74">
+        <v>13000</v>
+      </c>
+      <c r="R74">
+        <v>17000</v>
+      </c>
+      <c r="S74">
+        <v>13000</v>
+      </c>
+      <c r="T74">
+        <v>13000</v>
+      </c>
+      <c r="U74">
+        <v>13000</v>
+      </c>
+      <c r="V74">
+        <v>13000</v>
+      </c>
+      <c r="W74">
+        <v>13000</v>
+      </c>
+      <c r="X74">
+        <v>17000</v>
+      </c>
+      <c r="Y74">
+        <v>13000</v>
+      </c>
+      <c r="Z74">
+        <v>13000</v>
+      </c>
+      <c r="AA74">
+        <v>13000</v>
+      </c>
+      <c r="AB74">
+        <v>13000</v>
+      </c>
+      <c r="AC74">
+        <v>22000</v>
+      </c>
+      <c r="AD74">
+        <v>22000</v>
+      </c>
+      <c r="AE74">
+        <v>22000</v>
+      </c>
+      <c r="AF74">
+        <v>22000</v>
+      </c>
+      <c r="AG74">
+        <v>22000</v>
       </c>
     </row>
     <row r="75" spans="1:33">
-      <c r="A75" t="s">
-        <v>181</v>
+      <c r="A75" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75">
+        <v>2900</v>
+      </c>
+      <c r="D75">
+        <v>2900</v>
+      </c>
+      <c r="E75">
+        <v>3400</v>
+      </c>
+      <c r="F75">
+        <v>4400</v>
+      </c>
+      <c r="G75">
+        <v>13000</v>
+      </c>
+      <c r="H75">
+        <v>17000</v>
+      </c>
+      <c r="I75">
+        <v>3400</v>
+      </c>
+      <c r="J75">
+        <v>3400</v>
+      </c>
+      <c r="K75">
+        <v>4400</v>
+      </c>
+      <c r="L75">
+        <v>13000</v>
+      </c>
+      <c r="M75">
+        <v>17000</v>
+      </c>
+      <c r="N75">
+        <v>4400</v>
+      </c>
+      <c r="O75">
+        <v>5500</v>
+      </c>
+      <c r="P75">
+        <v>5900</v>
+      </c>
+      <c r="Q75">
+        <v>13000</v>
+      </c>
+      <c r="R75">
+        <v>17000</v>
+      </c>
+      <c r="S75">
+        <v>13000</v>
+      </c>
+      <c r="T75">
+        <v>13000</v>
+      </c>
+      <c r="U75">
+        <v>13000</v>
+      </c>
+      <c r="V75">
+        <v>13000</v>
+      </c>
+      <c r="W75">
+        <v>13000</v>
+      </c>
+      <c r="X75">
+        <v>17000</v>
+      </c>
+      <c r="Y75">
+        <v>13000</v>
+      </c>
+      <c r="Z75">
+        <v>13000</v>
+      </c>
+      <c r="AA75">
+        <v>13000</v>
+      </c>
+      <c r="AB75">
+        <v>13000</v>
+      </c>
+      <c r="AC75">
+        <v>22000</v>
+      </c>
+      <c r="AD75">
+        <v>22000</v>
+      </c>
+      <c r="AE75">
+        <v>22000</v>
+      </c>
+      <c r="AF75">
+        <v>22000</v>
+      </c>
+      <c r="AG75">
+        <v>22000</v>
       </c>
     </row>
     <row r="76" spans="1:33">
-      <c r="A76" t="s">
-        <v>182</v>
-      </c>
+      <c r="A76" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="36"/>
       <c r="C76">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="D76">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="E76">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="F76">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="G76">
         <v>13000</v>
@@ -4480,13 +8761,13 @@
         <v>17000</v>
       </c>
       <c r="I76">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="J76">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K76">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="L76">
         <v>13000</v>
@@ -4495,13 +8776,13 @@
         <v>17000</v>
       </c>
       <c r="N76">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="O76">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="P76">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="Q76">
         <v>13000</v>
@@ -4556,30 +8837,219 @@
       </c>
     </row>
     <row r="77" spans="1:33">
-      <c r="A77" t="s">
-        <v>183</v>
+      <c r="A77" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77">
+        <v>2900</v>
+      </c>
+      <c r="D77">
+        <v>2900</v>
+      </c>
+      <c r="E77">
+        <v>3400</v>
+      </c>
+      <c r="F77">
+        <v>4300</v>
+      </c>
+      <c r="G77">
+        <v>13000</v>
+      </c>
+      <c r="H77">
+        <v>17000</v>
+      </c>
+      <c r="I77">
+        <v>3400</v>
+      </c>
+      <c r="J77">
+        <v>3400</v>
+      </c>
+      <c r="K77">
+        <v>4300</v>
+      </c>
+      <c r="L77">
+        <v>13000</v>
+      </c>
+      <c r="M77">
+        <v>17000</v>
+      </c>
+      <c r="N77">
+        <v>4300</v>
+      </c>
+      <c r="O77">
+        <v>5400</v>
+      </c>
+      <c r="P77">
+        <v>5600</v>
+      </c>
+      <c r="Q77">
+        <v>13000</v>
+      </c>
+      <c r="R77">
+        <v>17000</v>
+      </c>
+      <c r="S77">
+        <v>13000</v>
+      </c>
+      <c r="T77">
+        <v>13000</v>
+      </c>
+      <c r="U77">
+        <v>13000</v>
+      </c>
+      <c r="V77">
+        <v>13000</v>
+      </c>
+      <c r="W77">
+        <v>13000</v>
+      </c>
+      <c r="X77">
+        <v>17000</v>
+      </c>
+      <c r="Y77">
+        <v>13000</v>
+      </c>
+      <c r="Z77">
+        <v>13000</v>
+      </c>
+      <c r="AA77">
+        <v>13000</v>
+      </c>
+      <c r="AB77">
+        <v>13000</v>
+      </c>
+      <c r="AC77">
+        <v>22000</v>
+      </c>
+      <c r="AD77">
+        <v>22000</v>
+      </c>
+      <c r="AE77">
+        <v>22000</v>
+      </c>
+      <c r="AF77">
+        <v>22000</v>
+      </c>
+      <c r="AG77">
+        <v>22000</v>
       </c>
     </row>
     <row r="78" spans="1:33">
-      <c r="A78" t="s">
-        <v>184</v>
+      <c r="A78" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="37">
+        <v>2150</v>
+      </c>
+      <c r="D78" s="37">
+        <v>2150</v>
+      </c>
+      <c r="E78" s="37">
+        <v>2700</v>
+      </c>
+      <c r="F78" s="37">
+        <v>3250</v>
+      </c>
+      <c r="G78">
+        <v>13000</v>
+      </c>
+      <c r="H78">
+        <v>17000</v>
+      </c>
+      <c r="I78" s="37">
+        <v>2700</v>
+      </c>
+      <c r="J78" s="37">
+        <v>2700</v>
+      </c>
+      <c r="K78" s="37">
+        <v>3250</v>
+      </c>
+      <c r="L78">
+        <v>13000</v>
+      </c>
+      <c r="M78">
+        <v>17000</v>
+      </c>
+      <c r="N78" s="37">
+        <v>3250</v>
+      </c>
+      <c r="O78" s="37">
+        <v>4700</v>
+      </c>
+      <c r="P78" s="37">
+        <v>5000</v>
+      </c>
+      <c r="Q78">
+        <v>13000</v>
+      </c>
+      <c r="R78">
+        <v>17000</v>
+      </c>
+      <c r="S78">
+        <v>13000</v>
+      </c>
+      <c r="T78">
+        <v>13000</v>
+      </c>
+      <c r="U78">
+        <v>13000</v>
+      </c>
+      <c r="V78">
+        <v>13000</v>
+      </c>
+      <c r="W78">
+        <v>13000</v>
+      </c>
+      <c r="X78">
+        <v>17000</v>
+      </c>
+      <c r="Y78">
+        <v>13000</v>
+      </c>
+      <c r="Z78">
+        <v>13000</v>
+      </c>
+      <c r="AA78">
+        <v>13000</v>
+      </c>
+      <c r="AB78">
+        <v>13000</v>
+      </c>
+      <c r="AC78">
+        <v>22000</v>
+      </c>
+      <c r="AD78">
+        <v>22000</v>
+      </c>
+      <c r="AE78">
+        <v>22000</v>
+      </c>
+      <c r="AF78">
+        <v>22000</v>
+      </c>
+      <c r="AG78">
+        <v>22000</v>
       </c>
     </row>
     <row r="79" spans="1:33">
-      <c r="A79" t="s">
-        <v>185</v>
-      </c>
-      <c r="C79">
-        <v>2900</v>
-      </c>
-      <c r="D79">
-        <v>2900</v>
-      </c>
-      <c r="E79">
-        <v>3400</v>
-      </c>
-      <c r="F79">
-        <v>4300</v>
+      <c r="A79" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="37">
+        <v>2800</v>
+      </c>
+      <c r="D79" s="37">
+        <v>2800</v>
+      </c>
+      <c r="E79" s="37">
+        <v>3300</v>
+      </c>
+      <c r="F79" s="37">
+        <v>4600</v>
       </c>
       <c r="G79">
         <v>13000</v>
@@ -4587,14 +9057,14 @@
       <c r="H79">
         <v>17000</v>
       </c>
-      <c r="I79">
-        <v>3400</v>
-      </c>
-      <c r="J79">
-        <v>3400</v>
-      </c>
-      <c r="K79">
-        <v>4300</v>
+      <c r="I79" s="37">
+        <v>3300</v>
+      </c>
+      <c r="J79" s="37">
+        <v>3300</v>
+      </c>
+      <c r="K79" s="37">
+        <v>4600</v>
       </c>
       <c r="L79">
         <v>13000</v>
@@ -4602,14 +9072,14 @@
       <c r="M79">
         <v>17000</v>
       </c>
-      <c r="N79">
-        <v>4300</v>
-      </c>
-      <c r="O79">
-        <v>5400</v>
-      </c>
-      <c r="P79">
+      <c r="N79" s="37">
+        <v>4600</v>
+      </c>
+      <c r="O79" s="37">
         <v>5600</v>
+      </c>
+      <c r="P79" s="37">
+        <v>5800</v>
       </c>
       <c r="Q79">
         <v>13000</v>
@@ -4664,20 +9134,21 @@
       </c>
     </row>
     <row r="80" spans="1:33">
-      <c r="A80" t="s">
-        <v>186</v>
-      </c>
+      <c r="A80" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="36"/>
       <c r="C80">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="D80">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E80">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F80">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="G80">
         <v>13000</v>
@@ -4686,13 +9157,13 @@
         <v>17000</v>
       </c>
       <c r="I80">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="J80">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K80">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="L80">
         <v>13000</v>
@@ -4701,13 +9172,13 @@
         <v>17000</v>
       </c>
       <c r="N80">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="O80">
         <v>5400</v>
       </c>
       <c r="P80">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="Q80">
         <v>13000</v>
@@ -4762,40 +9233,417 @@
       </c>
     </row>
     <row r="81" spans="1:33">
-      <c r="A81" t="s">
-        <v>187</v>
+      <c r="A81" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81">
+        <v>2500</v>
+      </c>
+      <c r="D81">
+        <v>2500</v>
+      </c>
+      <c r="E81">
+        <v>3000</v>
+      </c>
+      <c r="F81">
+        <v>3700</v>
+      </c>
+      <c r="G81">
+        <v>13000</v>
+      </c>
+      <c r="H81">
+        <v>17000</v>
+      </c>
+      <c r="I81">
+        <v>3000</v>
+      </c>
+      <c r="J81">
+        <v>3000</v>
+      </c>
+      <c r="K81">
+        <v>3700</v>
+      </c>
+      <c r="L81">
+        <v>13000</v>
+      </c>
+      <c r="M81">
+        <v>17000</v>
+      </c>
+      <c r="N81">
+        <v>3700</v>
+      </c>
+      <c r="O81">
+        <v>5400</v>
+      </c>
+      <c r="P81">
+        <v>5800</v>
+      </c>
+      <c r="Q81">
+        <v>13000</v>
+      </c>
+      <c r="R81">
+        <v>17000</v>
+      </c>
+      <c r="S81">
+        <v>13000</v>
+      </c>
+      <c r="T81">
+        <v>13000</v>
+      </c>
+      <c r="U81">
+        <v>13000</v>
+      </c>
+      <c r="V81">
+        <v>13000</v>
+      </c>
+      <c r="W81">
+        <v>13000</v>
+      </c>
+      <c r="X81">
+        <v>17000</v>
+      </c>
+      <c r="Y81">
+        <v>13000</v>
+      </c>
+      <c r="Z81">
+        <v>13000</v>
+      </c>
+      <c r="AA81">
+        <v>13000</v>
+      </c>
+      <c r="AB81">
+        <v>13000</v>
+      </c>
+      <c r="AC81">
+        <v>22000</v>
+      </c>
+      <c r="AD81">
+        <v>22000</v>
+      </c>
+      <c r="AE81">
+        <v>22000</v>
+      </c>
+      <c r="AF81">
+        <v>22000</v>
+      </c>
+      <c r="AG81">
+        <v>22000</v>
       </c>
     </row>
     <row r="82" spans="1:33">
-      <c r="A82" t="s">
-        <v>188</v>
+      <c r="A82" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82">
+        <v>2900</v>
+      </c>
+      <c r="D82">
+        <v>2900</v>
+      </c>
+      <c r="E82">
+        <v>3400</v>
+      </c>
+      <c r="F82">
+        <v>4400</v>
+      </c>
+      <c r="G82">
+        <v>13000</v>
+      </c>
+      <c r="H82">
+        <v>17000</v>
+      </c>
+      <c r="I82">
+        <v>3400</v>
+      </c>
+      <c r="J82">
+        <v>3400</v>
+      </c>
+      <c r="K82">
+        <v>4400</v>
+      </c>
+      <c r="L82">
+        <v>13000</v>
+      </c>
+      <c r="M82">
+        <v>17000</v>
+      </c>
+      <c r="N82">
+        <v>4400</v>
+      </c>
+      <c r="O82">
+        <v>5500</v>
+      </c>
+      <c r="P82">
+        <v>5900</v>
+      </c>
+      <c r="Q82">
+        <v>13000</v>
+      </c>
+      <c r="R82">
+        <v>17000</v>
+      </c>
+      <c r="S82">
+        <v>13000</v>
+      </c>
+      <c r="T82">
+        <v>13000</v>
+      </c>
+      <c r="U82">
+        <v>13000</v>
+      </c>
+      <c r="V82">
+        <v>13000</v>
+      </c>
+      <c r="W82">
+        <v>13000</v>
+      </c>
+      <c r="X82">
+        <v>17000</v>
+      </c>
+      <c r="Y82">
+        <v>13000</v>
+      </c>
+      <c r="Z82">
+        <v>13000</v>
+      </c>
+      <c r="AA82">
+        <v>13000</v>
+      </c>
+      <c r="AB82">
+        <v>13000</v>
+      </c>
+      <c r="AC82">
+        <v>22000</v>
+      </c>
+      <c r="AD82">
+        <v>22000</v>
+      </c>
+      <c r="AE82">
+        <v>22000</v>
+      </c>
+      <c r="AF82">
+        <v>22000</v>
+      </c>
+      <c r="AG82">
+        <v>22000</v>
       </c>
     </row>
     <row r="83" spans="1:33">
-      <c r="A83" t="s">
-        <v>189</v>
+      <c r="A83" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="37">
+        <v>2900</v>
+      </c>
+      <c r="D83" s="37">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="37">
+        <v>3400</v>
+      </c>
+      <c r="F83" s="37">
+        <v>4300</v>
+      </c>
+      <c r="G83">
+        <v>13000</v>
+      </c>
+      <c r="H83">
+        <v>17000</v>
+      </c>
+      <c r="I83" s="37">
+        <v>3400</v>
+      </c>
+      <c r="J83" s="37">
+        <v>3400</v>
+      </c>
+      <c r="K83" s="37">
+        <v>4300</v>
+      </c>
+      <c r="L83">
+        <v>13000</v>
+      </c>
+      <c r="M83">
+        <v>17000</v>
+      </c>
+      <c r="N83" s="37">
+        <v>4300</v>
+      </c>
+      <c r="O83" s="37">
+        <v>5400</v>
+      </c>
+      <c r="P83" s="37">
+        <v>5600</v>
+      </c>
+      <c r="Q83">
+        <v>13000</v>
+      </c>
+      <c r="R83">
+        <v>17000</v>
+      </c>
+      <c r="S83">
+        <v>13000</v>
+      </c>
+      <c r="T83">
+        <v>13000</v>
+      </c>
+      <c r="U83">
+        <v>13000</v>
+      </c>
+      <c r="V83">
+        <v>13000</v>
+      </c>
+      <c r="W83">
+        <v>13000</v>
+      </c>
+      <c r="X83">
+        <v>17000</v>
+      </c>
+      <c r="Y83">
+        <v>13000</v>
+      </c>
+      <c r="Z83">
+        <v>13000</v>
+      </c>
+      <c r="AA83">
+        <v>13000</v>
+      </c>
+      <c r="AB83">
+        <v>13000</v>
+      </c>
+      <c r="AC83">
+        <v>22000</v>
+      </c>
+      <c r="AD83">
+        <v>22000</v>
+      </c>
+      <c r="AE83">
+        <v>22000</v>
+      </c>
+      <c r="AF83">
+        <v>22000</v>
+      </c>
+      <c r="AG83">
+        <v>22000</v>
       </c>
     </row>
     <row r="84" spans="1:33">
-      <c r="A84" t="s">
-        <v>190</v>
+      <c r="A84" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="36"/>
+      <c r="C84" s="38">
+        <v>2200</v>
+      </c>
+      <c r="D84" s="38">
+        <v>2200</v>
+      </c>
+      <c r="E84" s="38">
+        <v>2800</v>
+      </c>
+      <c r="F84" s="38">
+        <v>3700</v>
+      </c>
+      <c r="G84">
+        <v>13000</v>
+      </c>
+      <c r="H84">
+        <v>17000</v>
+      </c>
+      <c r="I84" s="38">
+        <v>2800</v>
+      </c>
+      <c r="J84" s="38">
+        <v>2800</v>
+      </c>
+      <c r="K84" s="38">
+        <v>3700</v>
+      </c>
+      <c r="L84">
+        <v>13000</v>
+      </c>
+      <c r="M84">
+        <v>17000</v>
+      </c>
+      <c r="N84" s="38">
+        <v>3700</v>
+      </c>
+      <c r="O84" s="38">
+        <v>5000</v>
+      </c>
+      <c r="P84" s="38">
+        <v>5400</v>
+      </c>
+      <c r="Q84">
+        <v>13000</v>
+      </c>
+      <c r="R84">
+        <v>17000</v>
+      </c>
+      <c r="S84">
+        <v>13000</v>
+      </c>
+      <c r="T84">
+        <v>13000</v>
+      </c>
+      <c r="U84">
+        <v>13000</v>
+      </c>
+      <c r="V84">
+        <v>13000</v>
+      </c>
+      <c r="W84">
+        <v>13000</v>
+      </c>
+      <c r="X84">
+        <v>17000</v>
+      </c>
+      <c r="Y84">
+        <v>13000</v>
+      </c>
+      <c r="Z84">
+        <v>13000</v>
+      </c>
+      <c r="AA84">
+        <v>13000</v>
+      </c>
+      <c r="AB84">
+        <v>13000</v>
+      </c>
+      <c r="AC84">
+        <v>22000</v>
+      </c>
+      <c r="AD84">
+        <v>22000</v>
+      </c>
+      <c r="AE84">
+        <v>22000</v>
+      </c>
+      <c r="AF84">
+        <v>22000</v>
+      </c>
+      <c r="AG84">
+        <v>22000</v>
       </c>
     </row>
     <row r="85" spans="1:33">
-      <c r="A85" t="s">
-        <v>191</v>
-      </c>
-      <c r="C85">
-        <v>2400</v>
-      </c>
-      <c r="D85">
-        <v>2400</v>
-      </c>
-      <c r="E85">
-        <v>3000</v>
-      </c>
-      <c r="F85">
-        <v>4100</v>
+      <c r="A85" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="38">
+        <v>2500</v>
+      </c>
+      <c r="D85" s="38">
+        <v>2500</v>
+      </c>
+      <c r="E85" s="38">
+        <v>3100</v>
+      </c>
+      <c r="F85" s="38">
+        <v>4300</v>
       </c>
       <c r="G85">
         <v>13000</v>
@@ -4803,14 +9651,14 @@
       <c r="H85">
         <v>17000</v>
       </c>
-      <c r="I85">
-        <v>3000</v>
-      </c>
-      <c r="J85">
-        <v>3000</v>
-      </c>
-      <c r="K85">
-        <v>4100</v>
+      <c r="I85" s="38">
+        <v>3100</v>
+      </c>
+      <c r="J85" s="38">
+        <v>3100</v>
+      </c>
+      <c r="K85" s="38">
+        <v>4300</v>
       </c>
       <c r="L85">
         <v>13000</v>
@@ -4818,13 +9666,13 @@
       <c r="M85">
         <v>17000</v>
       </c>
-      <c r="N85">
-        <v>4100</v>
-      </c>
-      <c r="O85">
+      <c r="N85" s="38">
+        <v>4300</v>
+      </c>
+      <c r="O85" s="38">
         <v>5400</v>
       </c>
-      <c r="P85">
+      <c r="P85" s="38">
         <v>5600</v>
       </c>
       <c r="Q85">
@@ -4880,30 +9728,219 @@
       </c>
     </row>
     <row r="86" spans="1:33">
-      <c r="A86" t="s">
-        <v>192</v>
+      <c r="A86" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86">
+        <v>2400</v>
+      </c>
+      <c r="D86">
+        <v>2400</v>
+      </c>
+      <c r="E86">
+        <v>3000</v>
+      </c>
+      <c r="F86">
+        <v>4100</v>
+      </c>
+      <c r="G86">
+        <v>13000</v>
+      </c>
+      <c r="H86">
+        <v>17000</v>
+      </c>
+      <c r="I86">
+        <v>3000</v>
+      </c>
+      <c r="J86">
+        <v>3000</v>
+      </c>
+      <c r="K86">
+        <v>4100</v>
+      </c>
+      <c r="L86">
+        <v>13000</v>
+      </c>
+      <c r="M86">
+        <v>17000</v>
+      </c>
+      <c r="N86">
+        <v>4100</v>
+      </c>
+      <c r="O86">
+        <v>5400</v>
+      </c>
+      <c r="P86">
+        <v>5600</v>
+      </c>
+      <c r="Q86">
+        <v>13000</v>
+      </c>
+      <c r="R86">
+        <v>17000</v>
+      </c>
+      <c r="S86">
+        <v>13000</v>
+      </c>
+      <c r="T86">
+        <v>13000</v>
+      </c>
+      <c r="U86">
+        <v>13000</v>
+      </c>
+      <c r="V86">
+        <v>13000</v>
+      </c>
+      <c r="W86">
+        <v>13000</v>
+      </c>
+      <c r="X86">
+        <v>17000</v>
+      </c>
+      <c r="Y86">
+        <v>13000</v>
+      </c>
+      <c r="Z86">
+        <v>13000</v>
+      </c>
+      <c r="AA86">
+        <v>13000</v>
+      </c>
+      <c r="AB86">
+        <v>13000</v>
+      </c>
+      <c r="AC86">
+        <v>22000</v>
+      </c>
+      <c r="AD86">
+        <v>22000</v>
+      </c>
+      <c r="AE86">
+        <v>22000</v>
+      </c>
+      <c r="AF86">
+        <v>22000</v>
+      </c>
+      <c r="AG86">
+        <v>22000</v>
       </c>
     </row>
     <row r="87" spans="1:33">
-      <c r="A87" t="s">
-        <v>193</v>
+      <c r="A87" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="37">
+        <v>2900</v>
+      </c>
+      <c r="D87" s="37">
+        <v>2900</v>
+      </c>
+      <c r="E87" s="37">
+        <v>3400</v>
+      </c>
+      <c r="F87" s="37">
+        <v>4300</v>
+      </c>
+      <c r="G87">
+        <v>13000</v>
+      </c>
+      <c r="H87">
+        <v>17000</v>
+      </c>
+      <c r="I87" s="37">
+        <v>3400</v>
+      </c>
+      <c r="J87" s="37">
+        <v>3400</v>
+      </c>
+      <c r="K87" s="37">
+        <v>4300</v>
+      </c>
+      <c r="L87">
+        <v>13000</v>
+      </c>
+      <c r="M87">
+        <v>17000</v>
+      </c>
+      <c r="N87" s="37">
+        <v>4300</v>
+      </c>
+      <c r="O87" s="37">
+        <v>5400</v>
+      </c>
+      <c r="P87" s="37">
+        <v>5600</v>
+      </c>
+      <c r="Q87">
+        <v>13000</v>
+      </c>
+      <c r="R87">
+        <v>17000</v>
+      </c>
+      <c r="S87">
+        <v>13000</v>
+      </c>
+      <c r="T87">
+        <v>13000</v>
+      </c>
+      <c r="U87">
+        <v>13000</v>
+      </c>
+      <c r="V87">
+        <v>13000</v>
+      </c>
+      <c r="W87">
+        <v>13000</v>
+      </c>
+      <c r="X87">
+        <v>17000</v>
+      </c>
+      <c r="Y87">
+        <v>13000</v>
+      </c>
+      <c r="Z87">
+        <v>13000</v>
+      </c>
+      <c r="AA87">
+        <v>13000</v>
+      </c>
+      <c r="AB87">
+        <v>13000</v>
+      </c>
+      <c r="AC87">
+        <v>22000</v>
+      </c>
+      <c r="AD87">
+        <v>22000</v>
+      </c>
+      <c r="AE87">
+        <v>22000</v>
+      </c>
+      <c r="AF87">
+        <v>22000</v>
+      </c>
+      <c r="AG87">
+        <v>22000</v>
       </c>
     </row>
     <row r="88" spans="1:33">
-      <c r="A88" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88">
-        <v>2900</v>
-      </c>
-      <c r="D88">
-        <v>2900</v>
-      </c>
-      <c r="E88">
-        <v>3400</v>
-      </c>
-      <c r="F88">
-        <v>4300</v>
+      <c r="A88" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="38">
+        <v>2400</v>
+      </c>
+      <c r="D88" s="38">
+        <v>2400</v>
+      </c>
+      <c r="E88" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F88" s="38">
+        <v>4100</v>
       </c>
       <c r="G88">
         <v>13000</v>
@@ -4911,14 +9948,14 @@
       <c r="H88">
         <v>17000</v>
       </c>
-      <c r="I88">
-        <v>3400</v>
-      </c>
-      <c r="J88">
-        <v>3400</v>
-      </c>
-      <c r="K88">
-        <v>4300</v>
+      <c r="I88" s="38">
+        <v>3000</v>
+      </c>
+      <c r="J88" s="38">
+        <v>3000</v>
+      </c>
+      <c r="K88" s="38">
+        <v>4100</v>
       </c>
       <c r="L88">
         <v>13000</v>
@@ -4926,13 +9963,13 @@
       <c r="M88">
         <v>17000</v>
       </c>
-      <c r="N88">
-        <v>4300</v>
-      </c>
-      <c r="O88">
+      <c r="N88" s="38">
+        <v>4100</v>
+      </c>
+      <c r="O88" s="38">
         <v>5400</v>
       </c>
-      <c r="P88">
+      <c r="P88" s="38">
         <v>5600</v>
       </c>
       <c r="Q88">
@@ -4988,24 +10025,119 @@
       </c>
     </row>
     <row r="89" spans="1:33">
-      <c r="A89" t="s">
-        <v>195</v>
+      <c r="A89" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89">
+        <v>2900</v>
+      </c>
+      <c r="D89">
+        <v>2900</v>
+      </c>
+      <c r="E89">
+        <v>3400</v>
+      </c>
+      <c r="F89">
+        <v>4300</v>
+      </c>
+      <c r="G89">
+        <v>13000</v>
+      </c>
+      <c r="H89">
+        <v>17000</v>
+      </c>
+      <c r="I89">
+        <v>3400</v>
+      </c>
+      <c r="J89">
+        <v>3400</v>
+      </c>
+      <c r="K89">
+        <v>4300</v>
+      </c>
+      <c r="L89">
+        <v>13000</v>
+      </c>
+      <c r="M89">
+        <v>17000</v>
+      </c>
+      <c r="N89">
+        <v>4300</v>
+      </c>
+      <c r="O89">
+        <v>5400</v>
+      </c>
+      <c r="P89">
+        <v>5600</v>
+      </c>
+      <c r="Q89">
+        <v>13000</v>
+      </c>
+      <c r="R89">
+        <v>17000</v>
+      </c>
+      <c r="S89">
+        <v>13000</v>
+      </c>
+      <c r="T89">
+        <v>13000</v>
+      </c>
+      <c r="U89">
+        <v>13000</v>
+      </c>
+      <c r="V89">
+        <v>13000</v>
+      </c>
+      <c r="W89">
+        <v>13000</v>
+      </c>
+      <c r="X89">
+        <v>17000</v>
+      </c>
+      <c r="Y89">
+        <v>13000</v>
+      </c>
+      <c r="Z89">
+        <v>13000</v>
+      </c>
+      <c r="AA89">
+        <v>13000</v>
+      </c>
+      <c r="AB89">
+        <v>13000</v>
+      </c>
+      <c r="AC89">
+        <v>22000</v>
+      </c>
+      <c r="AD89">
+        <v>22000</v>
+      </c>
+      <c r="AE89">
+        <v>22000</v>
+      </c>
+      <c r="AF89">
+        <v>22000</v>
+      </c>
+      <c r="AG89">
+        <v>22000</v>
       </c>
     </row>
     <row r="90" spans="1:33">
-      <c r="A90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90">
+      <c r="A90" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="37">
         <v>2900</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="37">
         <v>2900</v>
       </c>
-      <c r="E90">
-        <v>3400</v>
-      </c>
-      <c r="F90">
+      <c r="E90" s="37">
+        <v>3400</v>
+      </c>
+      <c r="F90" s="37">
         <v>4300</v>
       </c>
       <c r="G90">
@@ -5014,13 +10146,13 @@
       <c r="H90">
         <v>17000</v>
       </c>
-      <c r="I90">
-        <v>3400</v>
-      </c>
-      <c r="J90">
-        <v>3400</v>
-      </c>
-      <c r="K90">
+      <c r="I90" s="37">
+        <v>3400</v>
+      </c>
+      <c r="J90" s="37">
+        <v>3400</v>
+      </c>
+      <c r="K90" s="37">
         <v>4300</v>
       </c>
       <c r="L90">
@@ -5029,13 +10161,13 @@
       <c r="M90">
         <v>17000</v>
       </c>
-      <c r="N90">
-        <v>4300</v>
-      </c>
-      <c r="O90">
+      <c r="N90" s="37">
+        <v>4300</v>
+      </c>
+      <c r="O90" s="37">
         <v>5400</v>
       </c>
-      <c r="P90">
+      <c r="P90" s="37">
         <v>5600</v>
       </c>
       <c r="Q90">
@@ -5091,14 +10223,109 @@
       </c>
     </row>
     <row r="91" spans="1:33">
-      <c r="A91" t="s">
-        <v>197</v>
+      <c r="A91" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91">
+        <v>2900</v>
+      </c>
+      <c r="D91">
+        <v>2900</v>
+      </c>
+      <c r="E91">
+        <v>3400</v>
+      </c>
+      <c r="F91">
+        <v>4300</v>
+      </c>
+      <c r="G91">
+        <v>13000</v>
+      </c>
+      <c r="H91">
+        <v>17000</v>
+      </c>
+      <c r="I91">
+        <v>3400</v>
+      </c>
+      <c r="J91">
+        <v>3400</v>
+      </c>
+      <c r="K91">
+        <v>4300</v>
+      </c>
+      <c r="L91">
+        <v>13000</v>
+      </c>
+      <c r="M91">
+        <v>17000</v>
+      </c>
+      <c r="N91">
+        <v>4300</v>
+      </c>
+      <c r="O91">
+        <v>5400</v>
+      </c>
+      <c r="P91">
+        <v>5600</v>
+      </c>
+      <c r="Q91">
+        <v>13000</v>
+      </c>
+      <c r="R91">
+        <v>17000</v>
+      </c>
+      <c r="S91">
+        <v>13000</v>
+      </c>
+      <c r="T91">
+        <v>13000</v>
+      </c>
+      <c r="U91">
+        <v>13000</v>
+      </c>
+      <c r="V91">
+        <v>13000</v>
+      </c>
+      <c r="W91">
+        <v>13000</v>
+      </c>
+      <c r="X91">
+        <v>17000</v>
+      </c>
+      <c r="Y91">
+        <v>13000</v>
+      </c>
+      <c r="Z91">
+        <v>13000</v>
+      </c>
+      <c r="AA91">
+        <v>13000</v>
+      </c>
+      <c r="AB91">
+        <v>13000</v>
+      </c>
+      <c r="AC91">
+        <v>22000</v>
+      </c>
+      <c r="AD91">
+        <v>22000</v>
+      </c>
+      <c r="AE91">
+        <v>22000</v>
+      </c>
+      <c r="AF91">
+        <v>22000</v>
+      </c>
+      <c r="AG91">
+        <v>22000</v>
       </c>
     </row>
     <row r="92" spans="1:33">
-      <c r="A92" t="s">
-        <v>198</v>
-      </c>
+      <c r="A92" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="36"/>
       <c r="C92">
         <v>2900</v>
       </c>
@@ -5109,7 +10336,7 @@
         <v>3400</v>
       </c>
       <c r="F92">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G92">
         <v>13000</v>
@@ -5124,7 +10351,7 @@
         <v>3400</v>
       </c>
       <c r="K92">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="L92">
         <v>13000</v>
@@ -5133,13 +10360,13 @@
         <v>17000</v>
       </c>
       <c r="N92">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="O92">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="P92">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="Q92">
         <v>13000</v>
@@ -5194,55 +10421,150 @@
       </c>
     </row>
     <row r="93" spans="1:33">
-      <c r="A93" t="s">
-        <v>199</v>
+      <c r="A93" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93">
+        <v>2900</v>
+      </c>
+      <c r="D93">
+        <v>2900</v>
+      </c>
+      <c r="E93">
+        <v>3400</v>
+      </c>
+      <c r="F93">
+        <v>4300</v>
+      </c>
+      <c r="G93">
+        <v>13000</v>
+      </c>
+      <c r="H93">
+        <v>17000</v>
+      </c>
+      <c r="I93">
+        <v>3400</v>
+      </c>
+      <c r="J93">
+        <v>3400</v>
+      </c>
+      <c r="K93">
+        <v>4300</v>
+      </c>
+      <c r="L93">
+        <v>13000</v>
+      </c>
+      <c r="M93">
+        <v>17000</v>
+      </c>
+      <c r="N93">
+        <v>4300</v>
+      </c>
+      <c r="O93">
+        <v>5400</v>
+      </c>
+      <c r="P93">
+        <v>5600</v>
+      </c>
+      <c r="Q93">
+        <v>13000</v>
+      </c>
+      <c r="R93">
+        <v>17000</v>
+      </c>
+      <c r="S93">
+        <v>13000</v>
+      </c>
+      <c r="T93">
+        <v>13000</v>
+      </c>
+      <c r="U93">
+        <v>13000</v>
+      </c>
+      <c r="V93">
+        <v>13000</v>
+      </c>
+      <c r="W93">
+        <v>13000</v>
+      </c>
+      <c r="X93">
+        <v>17000</v>
+      </c>
+      <c r="Y93">
+        <v>13000</v>
+      </c>
+      <c r="Z93">
+        <v>13000</v>
+      </c>
+      <c r="AA93">
+        <v>13000</v>
+      </c>
+      <c r="AB93">
+        <v>13000</v>
+      </c>
+      <c r="AC93">
+        <v>22000</v>
+      </c>
+      <c r="AD93">
+        <v>22000</v>
+      </c>
+      <c r="AE93">
+        <v>22000</v>
+      </c>
+      <c r="AF93">
+        <v>22000</v>
+      </c>
+      <c r="AG93">
+        <v>22000</v>
       </c>
     </row>
     <row r="94" spans="1:33">
-      <c r="A94" t="s">
-        <v>200</v>
-      </c>
-      <c r="C94">
-        <v>2900</v>
-      </c>
-      <c r="D94">
+      <c r="A94" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="37">
+        <v>2200</v>
+      </c>
+      <c r="D94" s="37">
+        <v>2200</v>
+      </c>
+      <c r="E94" s="37">
         <v>3000</v>
       </c>
-      <c r="E94">
+      <c r="F94" s="37">
         <v>3500</v>
       </c>
-      <c r="F94">
-        <v>4800</v>
-      </c>
       <c r="G94">
         <v>13000</v>
       </c>
       <c r="H94">
         <v>17000</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="37">
+        <v>3000</v>
+      </c>
+      <c r="J94" s="37">
+        <v>3000</v>
+      </c>
+      <c r="K94" s="37">
         <v>3500</v>
       </c>
-      <c r="J94">
+      <c r="L94">
+        <v>13000</v>
+      </c>
+      <c r="M94">
+        <v>17000</v>
+      </c>
+      <c r="N94" s="37">
         <v>3500</v>
       </c>
-      <c r="K94">
-        <v>4800</v>
-      </c>
-      <c r="L94">
-        <v>13000</v>
-      </c>
-      <c r="M94">
-        <v>17000</v>
-      </c>
-      <c r="N94">
-        <v>4800</v>
-      </c>
-      <c r="O94">
-        <v>5600</v>
-      </c>
-      <c r="P94">
-        <v>5800</v>
+      <c r="O94" s="37">
+        <v>5200</v>
+      </c>
+      <c r="P94" s="37">
+        <v>5700</v>
       </c>
       <c r="Q94">
         <v>13000</v>
@@ -5297,20 +10619,21 @@
       </c>
     </row>
     <row r="95" spans="1:33">
-      <c r="A95" t="s">
-        <v>201</v>
-      </c>
+      <c r="A95" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="36"/>
       <c r="C95">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="D95">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E95">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F95">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="G95">
         <v>13000</v>
@@ -5319,13 +10642,13 @@
         <v>17000</v>
       </c>
       <c r="I95">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J95">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K95">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="L95">
         <v>13000</v>
@@ -5334,13 +10657,13 @@
         <v>17000</v>
       </c>
       <c r="N95">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="O95">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="P95">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="Q95">
         <v>13000</v>
@@ -5395,25 +10718,120 @@
       </c>
     </row>
     <row r="96" spans="1:33">
-      <c r="A96" t="s">
-        <v>202</v>
+      <c r="A96" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96">
+        <v>2500</v>
+      </c>
+      <c r="D96">
+        <v>2500</v>
+      </c>
+      <c r="E96">
+        <v>3400</v>
+      </c>
+      <c r="F96">
+        <v>4300</v>
+      </c>
+      <c r="G96">
+        <v>13000</v>
+      </c>
+      <c r="H96">
+        <v>17000</v>
+      </c>
+      <c r="I96">
+        <v>3400</v>
+      </c>
+      <c r="J96">
+        <v>3400</v>
+      </c>
+      <c r="K96">
+        <v>4300</v>
+      </c>
+      <c r="L96">
+        <v>13000</v>
+      </c>
+      <c r="M96">
+        <v>17000</v>
+      </c>
+      <c r="N96">
+        <v>4300</v>
+      </c>
+      <c r="O96">
+        <v>5400</v>
+      </c>
+      <c r="P96">
+        <v>5600</v>
+      </c>
+      <c r="Q96">
+        <v>13000</v>
+      </c>
+      <c r="R96">
+        <v>17000</v>
+      </c>
+      <c r="S96">
+        <v>13000</v>
+      </c>
+      <c r="T96">
+        <v>13000</v>
+      </c>
+      <c r="U96">
+        <v>13000</v>
+      </c>
+      <c r="V96">
+        <v>13000</v>
+      </c>
+      <c r="W96">
+        <v>13000</v>
+      </c>
+      <c r="X96">
+        <v>17000</v>
+      </c>
+      <c r="Y96">
+        <v>13000</v>
+      </c>
+      <c r="Z96">
+        <v>13000</v>
+      </c>
+      <c r="AA96">
+        <v>13000</v>
+      </c>
+      <c r="AB96">
+        <v>13000</v>
+      </c>
+      <c r="AC96">
+        <v>22000</v>
+      </c>
+      <c r="AD96">
+        <v>22000</v>
+      </c>
+      <c r="AE96">
+        <v>22000</v>
+      </c>
+      <c r="AF96">
+        <v>22000</v>
+      </c>
+      <c r="AG96">
+        <v>22000</v>
       </c>
     </row>
     <row r="97" spans="1:33">
-      <c r="A97" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97">
-        <v>2100</v>
-      </c>
-      <c r="D97">
-        <v>2100</v>
-      </c>
-      <c r="E97">
-        <v>3000</v>
-      </c>
-      <c r="F97">
-        <v>3500</v>
+      <c r="A97" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="37">
+        <v>2900</v>
+      </c>
+      <c r="D97" s="37">
+        <v>2900</v>
+      </c>
+      <c r="E97" s="37">
+        <v>3400</v>
+      </c>
+      <c r="F97" s="37">
+        <v>4300</v>
       </c>
       <c r="G97">
         <v>13000</v>
@@ -5421,14 +10839,14 @@
       <c r="H97">
         <v>17000</v>
       </c>
-      <c r="I97">
-        <v>3000</v>
-      </c>
-      <c r="J97">
-        <v>3000</v>
-      </c>
-      <c r="K97">
-        <v>3500</v>
+      <c r="I97" s="37">
+        <v>3400</v>
+      </c>
+      <c r="J97" s="37">
+        <v>3400</v>
+      </c>
+      <c r="K97" s="37">
+        <v>4300</v>
       </c>
       <c r="L97">
         <v>13000</v>
@@ -5436,14 +10854,14 @@
       <c r="M97">
         <v>17000</v>
       </c>
-      <c r="N97">
-        <v>3500</v>
-      </c>
-      <c r="O97">
-        <v>5200</v>
-      </c>
-      <c r="P97">
-        <v>5700</v>
+      <c r="N97" s="37">
+        <v>4300</v>
+      </c>
+      <c r="O97" s="37">
+        <v>5400</v>
+      </c>
+      <c r="P97" s="37">
+        <v>5600</v>
       </c>
       <c r="Q97">
         <v>13000</v>
@@ -5498,20 +10916,21 @@
       </c>
     </row>
     <row r="98" spans="1:33">
-      <c r="A98" t="s">
-        <v>204</v>
-      </c>
+      <c r="A98" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="36"/>
       <c r="C98">
-        <v>2670</v>
+        <v>2100</v>
       </c>
       <c r="D98">
-        <v>2670</v>
+        <v>2100</v>
       </c>
       <c r="E98">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="F98">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G98">
         <v>13000</v>
@@ -5520,13 +10939,13 @@
         <v>17000</v>
       </c>
       <c r="I98">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="J98">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K98">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="L98">
         <v>13000</v>
@@ -5535,13 +10954,13 @@
         <v>17000</v>
       </c>
       <c r="N98">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="O98">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="P98">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="Q98">
         <v>13000</v>
@@ -5596,20 +11015,21 @@
       </c>
     </row>
     <row r="99" spans="1:33">
-      <c r="A99" t="s">
-        <v>205</v>
-      </c>
+      <c r="A99" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" s="36"/>
       <c r="C99">
-        <v>2900</v>
+        <v>2670</v>
       </c>
       <c r="D99">
-        <v>2900</v>
+        <v>2670</v>
       </c>
       <c r="E99">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F99">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G99">
         <v>13000</v>
@@ -5618,13 +11038,13 @@
         <v>17000</v>
       </c>
       <c r="I99">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J99">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K99">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="L99">
         <v>13000</v>
@@ -5633,13 +11053,13 @@
         <v>17000</v>
       </c>
       <c r="N99">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="O99">
         <v>5400</v>
       </c>
       <c r="P99">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="Q99">
         <v>13000</v>
@@ -5694,35 +11114,318 @@
       </c>
     </row>
     <row r="100" spans="1:33">
-      <c r="A100" t="s">
-        <v>206</v>
+      <c r="A100" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100">
+        <v>2900</v>
+      </c>
+      <c r="D100">
+        <v>2900</v>
+      </c>
+      <c r="E100">
+        <v>3400</v>
+      </c>
+      <c r="F100">
+        <v>4300</v>
+      </c>
+      <c r="G100">
+        <v>13000</v>
+      </c>
+      <c r="H100">
+        <v>17000</v>
+      </c>
+      <c r="I100">
+        <v>3400</v>
+      </c>
+      <c r="J100">
+        <v>3400</v>
+      </c>
+      <c r="K100">
+        <v>4300</v>
+      </c>
+      <c r="L100">
+        <v>13000</v>
+      </c>
+      <c r="M100">
+        <v>17000</v>
+      </c>
+      <c r="N100">
+        <v>4300</v>
+      </c>
+      <c r="O100">
+        <v>5400</v>
+      </c>
+      <c r="P100">
+        <v>5600</v>
+      </c>
+      <c r="Q100">
+        <v>13000</v>
+      </c>
+      <c r="R100">
+        <v>17000</v>
+      </c>
+      <c r="S100">
+        <v>13000</v>
+      </c>
+      <c r="T100">
+        <v>13000</v>
+      </c>
+      <c r="U100">
+        <v>13000</v>
+      </c>
+      <c r="V100">
+        <v>13000</v>
+      </c>
+      <c r="W100">
+        <v>13000</v>
+      </c>
+      <c r="X100">
+        <v>17000</v>
+      </c>
+      <c r="Y100">
+        <v>13000</v>
+      </c>
+      <c r="Z100">
+        <v>13000</v>
+      </c>
+      <c r="AA100">
+        <v>13000</v>
+      </c>
+      <c r="AB100">
+        <v>13000</v>
+      </c>
+      <c r="AC100">
+        <v>22000</v>
+      </c>
+      <c r="AD100">
+        <v>22000</v>
+      </c>
+      <c r="AE100">
+        <v>22000</v>
+      </c>
+      <c r="AF100">
+        <v>22000</v>
+      </c>
+      <c r="AG100">
+        <v>22000</v>
       </c>
     </row>
     <row r="101" spans="1:33">
-      <c r="A101" t="s">
-        <v>207</v>
+      <c r="A101" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="38">
+        <v>2700</v>
+      </c>
+      <c r="D101" s="38">
+        <v>2800</v>
+      </c>
+      <c r="E101" s="38">
+        <v>3300</v>
+      </c>
+      <c r="F101" s="38">
+        <v>4600</v>
+      </c>
+      <c r="G101">
+        <v>13000</v>
+      </c>
+      <c r="H101">
+        <v>17000</v>
+      </c>
+      <c r="I101" s="38">
+        <v>3300</v>
+      </c>
+      <c r="J101" s="38">
+        <v>3300</v>
+      </c>
+      <c r="K101" s="38">
+        <v>4600</v>
+      </c>
+      <c r="L101">
+        <v>13000</v>
+      </c>
+      <c r="M101">
+        <v>17000</v>
+      </c>
+      <c r="N101" s="38">
+        <v>4600</v>
+      </c>
+      <c r="O101" s="38">
+        <v>5600</v>
+      </c>
+      <c r="P101" s="38">
+        <v>5800</v>
+      </c>
+      <c r="Q101">
+        <v>13000</v>
+      </c>
+      <c r="R101">
+        <v>17000</v>
+      </c>
+      <c r="S101">
+        <v>13000</v>
+      </c>
+      <c r="T101">
+        <v>13000</v>
+      </c>
+      <c r="U101">
+        <v>13000</v>
+      </c>
+      <c r="V101">
+        <v>13000</v>
+      </c>
+      <c r="W101">
+        <v>13000</v>
+      </c>
+      <c r="X101">
+        <v>17000</v>
+      </c>
+      <c r="Y101">
+        <v>13000</v>
+      </c>
+      <c r="Z101">
+        <v>13000</v>
+      </c>
+      <c r="AA101">
+        <v>13000</v>
+      </c>
+      <c r="AB101">
+        <v>13000</v>
+      </c>
+      <c r="AC101">
+        <v>22000</v>
+      </c>
+      <c r="AD101">
+        <v>22000</v>
+      </c>
+      <c r="AE101">
+        <v>22000</v>
+      </c>
+      <c r="AF101">
+        <v>22000</v>
+      </c>
+      <c r="AG101">
+        <v>22000</v>
       </c>
     </row>
     <row r="102" spans="1:33">
-      <c r="A102" t="s">
-        <v>208</v>
+      <c r="A102" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102">
+        <v>1950</v>
+      </c>
+      <c r="D102">
+        <v>1950</v>
+      </c>
+      <c r="E102">
+        <v>2600</v>
+      </c>
+      <c r="F102">
+        <v>3600</v>
+      </c>
+      <c r="G102">
+        <v>13000</v>
+      </c>
+      <c r="H102">
+        <v>17000</v>
+      </c>
+      <c r="I102">
+        <v>2600</v>
+      </c>
+      <c r="J102">
+        <v>2600</v>
+      </c>
+      <c r="K102">
+        <v>3600</v>
+      </c>
+      <c r="L102">
+        <v>13000</v>
+      </c>
+      <c r="M102">
+        <v>17000</v>
+      </c>
+      <c r="N102">
+        <v>3600</v>
+      </c>
+      <c r="O102">
+        <v>4700</v>
+      </c>
+      <c r="P102">
+        <v>5100</v>
+      </c>
+      <c r="Q102">
+        <v>13000</v>
+      </c>
+      <c r="R102">
+        <v>17000</v>
+      </c>
+      <c r="S102">
+        <v>13000</v>
+      </c>
+      <c r="T102">
+        <v>13000</v>
+      </c>
+      <c r="U102">
+        <v>13000</v>
+      </c>
+      <c r="V102">
+        <v>13000</v>
+      </c>
+      <c r="W102">
+        <v>13000</v>
+      </c>
+      <c r="X102">
+        <v>17000</v>
+      </c>
+      <c r="Y102">
+        <v>13000</v>
+      </c>
+      <c r="Z102">
+        <v>13000</v>
+      </c>
+      <c r="AA102">
+        <v>13000</v>
+      </c>
+      <c r="AB102">
+        <v>13000</v>
+      </c>
+      <c r="AC102">
+        <v>22000</v>
+      </c>
+      <c r="AD102">
+        <v>22000</v>
+      </c>
+      <c r="AE102">
+        <v>22000</v>
+      </c>
+      <c r="AF102">
+        <v>22000</v>
+      </c>
+      <c r="AG102">
+        <v>22000</v>
       </c>
     </row>
     <row r="103" spans="1:33">
-      <c r="A103" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103">
-        <v>2000</v>
-      </c>
-      <c r="D103">
-        <v>2000</v>
-      </c>
-      <c r="E103">
-        <v>2670</v>
-      </c>
-      <c r="F103">
-        <v>3200</v>
+      <c r="A103" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="37">
+        <v>2900</v>
+      </c>
+      <c r="D103" s="37">
+        <v>2900</v>
+      </c>
+      <c r="E103" s="37">
+        <v>3400</v>
+      </c>
+      <c r="F103" s="37">
+        <v>4300</v>
       </c>
       <c r="G103">
         <v>13000</v>
@@ -5730,14 +11433,14 @@
       <c r="H103">
         <v>17000</v>
       </c>
-      <c r="I103">
-        <v>2670</v>
-      </c>
-      <c r="J103">
-        <v>2670</v>
-      </c>
-      <c r="K103">
-        <v>3200</v>
+      <c r="I103" s="37">
+        <v>3400</v>
+      </c>
+      <c r="J103" s="37">
+        <v>3400</v>
+      </c>
+      <c r="K103" s="37">
+        <v>4300</v>
       </c>
       <c r="L103">
         <v>13000</v>
@@ -5745,14 +11448,14 @@
       <c r="M103">
         <v>17000</v>
       </c>
-      <c r="N103">
-        <v>3200</v>
-      </c>
-      <c r="O103">
-        <v>4700</v>
-      </c>
-      <c r="P103">
-        <v>5200</v>
+      <c r="N103" s="37">
+        <v>4300</v>
+      </c>
+      <c r="O103" s="37">
+        <v>5400</v>
+      </c>
+      <c r="P103" s="37">
+        <v>5600</v>
       </c>
       <c r="Q103">
         <v>13000</v>
@@ -5807,25 +11510,120 @@
       </c>
     </row>
     <row r="104" spans="1:33">
-      <c r="A104" t="s">
-        <v>210</v>
+      <c r="A104" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="36"/>
+      <c r="C104">
+        <v>2000</v>
+      </c>
+      <c r="D104">
+        <v>2000</v>
+      </c>
+      <c r="E104">
+        <v>2670</v>
+      </c>
+      <c r="F104">
+        <v>3200</v>
+      </c>
+      <c r="G104">
+        <v>13000</v>
+      </c>
+      <c r="H104">
+        <v>17000</v>
+      </c>
+      <c r="I104">
+        <v>2670</v>
+      </c>
+      <c r="J104">
+        <v>2670</v>
+      </c>
+      <c r="K104">
+        <v>3200</v>
+      </c>
+      <c r="L104">
+        <v>13000</v>
+      </c>
+      <c r="M104">
+        <v>17000</v>
+      </c>
+      <c r="N104">
+        <v>3200</v>
+      </c>
+      <c r="O104">
+        <v>4700</v>
+      </c>
+      <c r="P104">
+        <v>5200</v>
+      </c>
+      <c r="Q104">
+        <v>13000</v>
+      </c>
+      <c r="R104">
+        <v>17000</v>
+      </c>
+      <c r="S104">
+        <v>13000</v>
+      </c>
+      <c r="T104">
+        <v>13000</v>
+      </c>
+      <c r="U104">
+        <v>13000</v>
+      </c>
+      <c r="V104">
+        <v>13000</v>
+      </c>
+      <c r="W104">
+        <v>13000</v>
+      </c>
+      <c r="X104">
+        <v>17000</v>
+      </c>
+      <c r="Y104">
+        <v>13000</v>
+      </c>
+      <c r="Z104">
+        <v>13000</v>
+      </c>
+      <c r="AA104">
+        <v>13000</v>
+      </c>
+      <c r="AB104">
+        <v>13000</v>
+      </c>
+      <c r="AC104">
+        <v>22000</v>
+      </c>
+      <c r="AD104">
+        <v>22000</v>
+      </c>
+      <c r="AE104">
+        <v>22000</v>
+      </c>
+      <c r="AF104">
+        <v>22000</v>
+      </c>
+      <c r="AG104">
+        <v>22000</v>
       </c>
     </row>
     <row r="105" spans="1:33">
-      <c r="A105" t="s">
-        <v>211</v>
-      </c>
-      <c r="C105">
-        <v>2500</v>
-      </c>
-      <c r="D105">
-        <v>2500</v>
-      </c>
-      <c r="E105">
-        <v>3000</v>
-      </c>
-      <c r="F105">
-        <v>3700</v>
+      <c r="A105" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="36"/>
+      <c r="C105" s="37">
+        <v>2900</v>
+      </c>
+      <c r="D105" s="37">
+        <v>2900</v>
+      </c>
+      <c r="E105" s="37">
+        <v>3400</v>
+      </c>
+      <c r="F105" s="37">
+        <v>4300</v>
       </c>
       <c r="G105">
         <v>13000</v>
@@ -5833,14 +11631,14 @@
       <c r="H105">
         <v>17000</v>
       </c>
-      <c r="I105">
-        <v>3000</v>
-      </c>
-      <c r="J105">
-        <v>3000</v>
-      </c>
-      <c r="K105">
-        <v>3700</v>
+      <c r="I105" s="37">
+        <v>3400</v>
+      </c>
+      <c r="J105" s="37">
+        <v>3400</v>
+      </c>
+      <c r="K105" s="37">
+        <v>4300</v>
       </c>
       <c r="L105">
         <v>13000</v>
@@ -5848,14 +11646,14 @@
       <c r="M105">
         <v>17000</v>
       </c>
-      <c r="N105">
-        <v>3700</v>
-      </c>
-      <c r="O105">
+      <c r="N105" s="37">
+        <v>4300</v>
+      </c>
+      <c r="O105" s="37">
         <v>5400</v>
       </c>
-      <c r="P105">
-        <v>5800</v>
+      <c r="P105" s="37">
+        <v>5600</v>
       </c>
       <c r="Q105">
         <v>13000</v>
@@ -5910,20 +11708,21 @@
       </c>
     </row>
     <row r="106" spans="1:33">
-      <c r="A106" t="s">
-        <v>212</v>
-      </c>
+      <c r="A106" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="36"/>
       <c r="C106">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="D106">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E106">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="F106">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G106">
         <v>13000</v>
@@ -5932,13 +11731,13 @@
         <v>17000</v>
       </c>
       <c r="I106">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="J106">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K106">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="L106">
         <v>13000</v>
@@ -5947,13 +11746,13 @@
         <v>17000</v>
       </c>
       <c r="N106">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="O106">
         <v>5400</v>
       </c>
       <c r="P106">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="Q106">
         <v>13000</v>
@@ -6008,66 +11807,402 @@
       </c>
     </row>
     <row r="107" spans="1:33">
-      <c r="A107" t="s">
-        <v>213</v>
+      <c r="A107" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="36"/>
+      <c r="C107">
+        <v>2700</v>
+      </c>
+      <c r="D107">
+        <v>2700</v>
+      </c>
+      <c r="E107">
+        <v>3200</v>
+      </c>
+      <c r="F107">
+        <v>3800</v>
+      </c>
+      <c r="G107">
+        <v>13000</v>
+      </c>
+      <c r="H107">
+        <v>17000</v>
+      </c>
+      <c r="I107">
+        <v>3200</v>
+      </c>
+      <c r="J107">
+        <v>3200</v>
+      </c>
+      <c r="K107">
+        <v>3800</v>
+      </c>
+      <c r="L107">
+        <v>13000</v>
+      </c>
+      <c r="M107">
+        <v>17000</v>
+      </c>
+      <c r="N107">
+        <v>3800</v>
+      </c>
+      <c r="O107">
+        <v>5400</v>
+      </c>
+      <c r="P107">
+        <v>5600</v>
+      </c>
+      <c r="Q107">
+        <v>13000</v>
+      </c>
+      <c r="R107">
+        <v>17000</v>
+      </c>
+      <c r="S107">
+        <v>13000</v>
+      </c>
+      <c r="T107">
+        <v>13000</v>
+      </c>
+      <c r="U107">
+        <v>13000</v>
+      </c>
+      <c r="V107">
+        <v>13000</v>
+      </c>
+      <c r="W107">
+        <v>13000</v>
+      </c>
+      <c r="X107">
+        <v>17000</v>
+      </c>
+      <c r="Y107">
+        <v>13000</v>
+      </c>
+      <c r="Z107">
+        <v>13000</v>
+      </c>
+      <c r="AA107">
+        <v>13000</v>
+      </c>
+      <c r="AB107">
+        <v>13000</v>
+      </c>
+      <c r="AC107">
+        <v>22000</v>
+      </c>
+      <c r="AD107">
+        <v>22000</v>
+      </c>
+      <c r="AE107">
+        <v>22000</v>
+      </c>
+      <c r="AF107">
+        <v>22000</v>
+      </c>
+      <c r="AG107">
+        <v>22000</v>
       </c>
     </row>
     <row r="108" spans="1:33">
-      <c r="A108" t="s">
-        <v>214</v>
+      <c r="A108" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" s="36"/>
+      <c r="C108">
+        <v>3200</v>
+      </c>
+      <c r="D108">
+        <v>3200</v>
+      </c>
+      <c r="E108">
+        <v>3700</v>
+      </c>
+      <c r="F108">
+        <v>4300</v>
+      </c>
+      <c r="G108">
+        <v>13000</v>
+      </c>
+      <c r="H108">
+        <v>17000</v>
+      </c>
+      <c r="I108">
+        <v>3700</v>
+      </c>
+      <c r="J108">
+        <v>3700</v>
+      </c>
+      <c r="K108">
+        <v>4300</v>
+      </c>
+      <c r="L108">
+        <v>13000</v>
+      </c>
+      <c r="M108">
+        <v>17000</v>
+      </c>
+      <c r="N108">
+        <v>4300</v>
+      </c>
+      <c r="O108">
+        <v>5600</v>
+      </c>
+      <c r="P108">
+        <v>6000</v>
+      </c>
+      <c r="Q108">
+        <v>13000</v>
+      </c>
+      <c r="R108">
+        <v>17000</v>
+      </c>
+      <c r="S108">
+        <v>13000</v>
+      </c>
+      <c r="T108">
+        <v>13000</v>
+      </c>
+      <c r="U108">
+        <v>13000</v>
+      </c>
+      <c r="V108">
+        <v>13000</v>
+      </c>
+      <c r="W108">
+        <v>13000</v>
+      </c>
+      <c r="X108">
+        <v>17000</v>
+      </c>
+      <c r="Y108">
+        <v>13000</v>
+      </c>
+      <c r="Z108">
+        <v>13000</v>
+      </c>
+      <c r="AA108">
+        <v>13000</v>
+      </c>
+      <c r="AB108">
+        <v>13000</v>
+      </c>
+      <c r="AC108">
+        <v>22000</v>
+      </c>
+      <c r="AD108">
+        <v>22000</v>
+      </c>
+      <c r="AE108">
+        <v>22000</v>
+      </c>
+      <c r="AF108">
+        <v>22000</v>
+      </c>
+      <c r="AG108">
+        <v>22000</v>
       </c>
     </row>
     <row r="109" spans="1:33">
-      <c r="A109" t="s">
+      <c r="A109" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="36"/>
+      <c r="C109" s="37">
+        <v>2900</v>
+      </c>
+      <c r="D109" s="37">
+        <v>2900</v>
+      </c>
+      <c r="E109" s="37">
+        <v>3400</v>
+      </c>
+      <c r="F109" s="37">
+        <v>4300</v>
+      </c>
+      <c r="G109">
+        <v>13000</v>
+      </c>
+      <c r="H109">
+        <v>17000</v>
+      </c>
+      <c r="I109" s="37">
+        <v>3400</v>
+      </c>
+      <c r="J109" s="37">
+        <v>3400</v>
+      </c>
+      <c r="K109" s="37">
+        <v>4300</v>
+      </c>
+      <c r="L109">
+        <v>13000</v>
+      </c>
+      <c r="M109">
+        <v>17000</v>
+      </c>
+      <c r="N109" s="37">
+        <v>4300</v>
+      </c>
+      <c r="O109" s="37">
+        <v>5400</v>
+      </c>
+      <c r="P109" s="37">
+        <v>5600</v>
+      </c>
+      <c r="Q109">
+        <v>13000</v>
+      </c>
+      <c r="R109">
+        <v>17000</v>
+      </c>
+      <c r="S109">
+        <v>13000</v>
+      </c>
+      <c r="T109">
+        <v>13000</v>
+      </c>
+      <c r="U109">
+        <v>13000</v>
+      </c>
+      <c r="V109">
+        <v>13000</v>
+      </c>
+      <c r="W109">
+        <v>13000</v>
+      </c>
+      <c r="X109">
+        <v>17000</v>
+      </c>
+      <c r="Y109">
+        <v>13000</v>
+      </c>
+      <c r="Z109">
+        <v>13000</v>
+      </c>
+      <c r="AA109">
+        <v>13000</v>
+      </c>
+      <c r="AB109">
+        <v>13000</v>
+      </c>
+      <c r="AC109">
+        <v>22000</v>
+      </c>
+      <c r="AD109">
+        <v>22000</v>
+      </c>
+      <c r="AE109">
+        <v>22000</v>
+      </c>
+      <c r="AF109">
+        <v>22000</v>
+      </c>
+      <c r="AG109">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
+      <c r="A110" s="36" t="s">
         <v>215</v>
+      </c>
+      <c r="B110" s="36"/>
+      <c r="C110" s="37">
+        <v>3000</v>
+      </c>
+      <c r="D110" s="37">
+        <v>3000</v>
+      </c>
+      <c r="E110" s="37">
+        <v>3500</v>
+      </c>
+      <c r="F110" s="37">
+        <v>4800</v>
+      </c>
+      <c r="G110">
+        <v>13000</v>
+      </c>
+      <c r="H110">
+        <v>17000</v>
+      </c>
+      <c r="I110" s="37">
+        <v>3500</v>
+      </c>
+      <c r="J110" s="37">
+        <v>3500</v>
+      </c>
+      <c r="K110" s="37">
+        <v>4800</v>
+      </c>
+      <c r="L110">
+        <v>13000</v>
+      </c>
+      <c r="M110">
+        <v>17000</v>
+      </c>
+      <c r="N110" s="37">
+        <v>4800</v>
+      </c>
+      <c r="O110" s="37">
+        <v>5600</v>
+      </c>
+      <c r="P110" s="37">
+        <v>5800</v>
+      </c>
+      <c r="Q110">
+        <v>13000</v>
+      </c>
+      <c r="R110">
+        <v>17000</v>
+      </c>
+      <c r="S110">
+        <v>13000</v>
+      </c>
+      <c r="T110">
+        <v>13000</v>
+      </c>
+      <c r="U110">
+        <v>13000</v>
+      </c>
+      <c r="V110">
+        <v>13000</v>
+      </c>
+      <c r="W110">
+        <v>13000</v>
+      </c>
+      <c r="X110">
+        <v>17000</v>
+      </c>
+      <c r="Y110">
+        <v>13000</v>
+      </c>
+      <c r="Z110">
+        <v>13000</v>
+      </c>
+      <c r="AA110">
+        <v>13000</v>
+      </c>
+      <c r="AB110">
+        <v>13000</v>
+      </c>
+      <c r="AC110">
+        <v>22000</v>
+      </c>
+      <c r="AD110">
+        <v>22000</v>
+      </c>
+      <c r="AE110">
+        <v>22000</v>
+      </c>
+      <c r="AF110">
+        <v>22000</v>
+      </c>
+      <c r="AG110">
+        <v>22000</v>
       </c>
     </row>
     <row r="111" spans="1:33">
-      <c r="A111" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111">
-        <v>2500</v>
-      </c>
-      <c r="D111">
-        <v>2500</v>
-      </c>
-      <c r="E111">
-        <v>3000</v>
-      </c>
-      <c r="F111">
-        <v>3700</v>
-      </c>
-      <c r="G111">
-        <v>13000</v>
-      </c>
-      <c r="H111" s="29">
-        <v>17000</v>
-      </c>
-      <c r="I111">
-        <v>3000</v>
-      </c>
-      <c r="J111">
-        <v>3000</v>
-      </c>
-      <c r="K111">
-        <v>3700</v>
-      </c>
-      <c r="L111">
-        <v>13000</v>
-      </c>
-      <c r="M111">
-        <v>17000</v>
-      </c>
-      <c r="N111">
-        <v>3700</v>
-      </c>
-      <c r="O111">
-        <v>5400</v>
-      </c>
-      <c r="P111">
-        <v>5800</v>
-      </c>
       <c r="Q111">
         <v>13000</v>
       </c>
